--- a/raw_data/20200818_saline/20200818_Sensor0_Test_42.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_42.xlsx
@@ -1,508 +1,924 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A31A3-BFC0-4828-AE01-FDBDE8A6F510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>36903.219662</v>
+        <v>36903.219662000003</v>
       </c>
       <c r="B2" s="1">
-        <v>10.250894</v>
+        <v>10.250894000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>909.349000</v>
+        <v>909.34900000000005</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.944000</v>
+        <v>-175.94399999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>36913.616769</v>
       </c>
       <c r="G2" s="1">
-        <v>10.253782</v>
+        <v>10.253781999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>923.323000</v>
+        <v>923.32299999999998</v>
       </c>
       <c r="I2" s="1">
-        <v>-150.996000</v>
+        <v>-150.99600000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>36924.429592</v>
@@ -511,420 +927,420 @@
         <v>10.256786</v>
       </c>
       <c r="M2" s="1">
-        <v>943.846000</v>
+        <v>943.846</v>
       </c>
       <c r="N2" s="1">
-        <v>-112.234000</v>
+        <v>-112.23399999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>36934.905062</v>
+        <v>36934.905061999998</v>
       </c>
       <c r="Q2" s="1">
         <v>10.259696</v>
       </c>
       <c r="R2" s="1">
-        <v>951.011000</v>
+        <v>951.01099999999997</v>
       </c>
       <c r="S2" s="1">
-        <v>-99.275900</v>
+        <v>-99.275899999999993</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>36945.115207</v>
+        <v>36945.115207000003</v>
       </c>
       <c r="V2" s="1">
         <v>10.262532</v>
       </c>
       <c r="W2" s="1">
-        <v>958.420000</v>
+        <v>958.42</v>
       </c>
       <c r="X2" s="1">
-        <v>-87.832200</v>
+        <v>-87.8322</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>36955.571867</v>
+        <v>36955.571866999999</v>
       </c>
       <c r="AA2" s="1">
         <v>10.265437</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.933000</v>
+        <v>966.93299999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-79.764600</v>
+        <v>-79.764600000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>36966.462061</v>
+        <v>36966.462060999998</v>
       </c>
       <c r="AF2" s="1">
         <v>10.268462</v>
       </c>
       <c r="AG2" s="1">
-        <v>972.563000</v>
+        <v>972.56299999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.759800</v>
+        <v>-79.759799999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>36977.006973</v>
+        <v>36977.006973000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>10.271391</v>
+        <v>10.271390999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>980.974000</v>
+        <v>980.97400000000005</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.713300</v>
+        <v>-87.713300000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>36987.284607</v>
+        <v>36987.284607000001</v>
       </c>
       <c r="AP2" s="1">
         <v>10.274246</v>
       </c>
       <c r="AQ2" s="1">
-        <v>990.298000</v>
+        <v>990.298</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.699000</v>
+        <v>-102.699</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>36997.877635</v>
+        <v>36997.877634999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>10.277188</v>
+        <v>10.277188000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>37008.700868</v>
       </c>
       <c r="AZ2" s="1">
-        <v>10.280195</v>
+        <v>10.280195000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.132000</v>
+        <v>-143.13200000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>37019.240822</v>
       </c>
       <c r="BE2" s="1">
-        <v>10.283122</v>
+        <v>10.283122000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1056.280000</v>
+        <v>1056.28</v>
       </c>
       <c r="BG2" s="1">
-        <v>-228.573000</v>
+        <v>-228.57300000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>37030.644342</v>
       </c>
       <c r="BJ2" s="1">
-        <v>10.286290</v>
+        <v>10.286289999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-366.174000</v>
+        <v>-366.17399999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>37041.751297</v>
+        <v>37041.751297000003</v>
       </c>
       <c r="BO2" s="1">
         <v>10.289375</v>
       </c>
       <c r="BP2" s="1">
-        <v>1266.670000</v>
+        <v>1266.67</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-579.700000</v>
+        <v>-579.70000000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>37052.628057</v>
+        <v>37052.628057000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>10.292397</v>
+        <v>10.292396999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1414.230000</v>
+        <v>1414.23</v>
       </c>
       <c r="BV2" s="1">
-        <v>-808.548000</v>
+        <v>-808.548</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>37063.326731</v>
+        <v>37063.326731000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>10.295369</v>
+        <v>10.295369000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1577.430000</v>
+        <v>1577.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1047.610000</v>
+        <v>-1047.6099999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>37074.273932</v>
+        <v>37074.273931999996</v>
       </c>
       <c r="CD2" s="1">
-        <v>10.298409</v>
+        <v>10.298408999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1990.240000</v>
+        <v>1990.24</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1608.840000</v>
+        <v>-1608.84</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>36903.647213</v>
+        <v>36903.647212999997</v>
       </c>
       <c r="B3" s="1">
         <v>10.251013</v>
       </c>
       <c r="C3" s="1">
-        <v>909.456000</v>
+        <v>909.45600000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.803000</v>
+        <v>-175.803</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>36913.967440</v>
+        <v>36913.96744</v>
       </c>
       <c r="G3" s="1">
-        <v>10.253880</v>
+        <v>10.253880000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>923.425000</v>
+        <v>923.42499999999995</v>
       </c>
       <c r="I3" s="1">
-        <v>-151.189000</v>
+        <v>-151.18899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>36924.788163</v>
+        <v>36924.788162999997</v>
       </c>
       <c r="L3" s="1">
         <v>10.256886</v>
       </c>
       <c r="M3" s="1">
-        <v>944.128000</v>
+        <v>944.12800000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-111.806000</v>
+        <v>-111.806</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>36935.276597</v>
+        <v>36935.276596999996</v>
       </c>
       <c r="Q3" s="1">
-        <v>10.259799</v>
+        <v>10.259798999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>950.970000</v>
+        <v>950.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-99.283400</v>
+        <v>-99.2834</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>36945.805638</v>
+        <v>36945.805637999998</v>
       </c>
       <c r="V3" s="1">
         <v>10.262724</v>
       </c>
       <c r="W3" s="1">
-        <v>958.425000</v>
+        <v>958.42499999999995</v>
       </c>
       <c r="X3" s="1">
-        <v>-87.797100</v>
+        <v>-87.7971</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>36956.305448</v>
+        <v>36956.305447999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>10.265640</v>
+        <v>10.265639999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.942000</v>
+        <v>966.94200000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-79.737800</v>
+        <v>-79.737799999999993</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>36966.867786</v>
+        <v>36966.867786000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>10.268574</v>
+        <v>10.268573999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>972.566000</v>
+        <v>972.56600000000003</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.749500</v>
+        <v>-79.749499999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>36977.359165</v>
+        <v>36977.359165000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>10.271489</v>
+        <v>10.271489000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>980.949000</v>
+        <v>980.94899999999996</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.684000</v>
+        <v>-87.683999999999997</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>36987.649631</v>
       </c>
       <c r="AP3" s="1">
-        <v>10.274347</v>
+        <v>10.274347000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>990.333000</v>
+        <v>990.33299999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.718000</v>
+        <v>-102.718</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>36998.280915</v>
+        <v>36998.280915000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>10.277300</v>
+        <v>10.2773</v>
       </c>
       <c r="AV3" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.325000</v>
+        <v>-124.325</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>37009.117476</v>
+        <v>37009.117475999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>10.280310</v>
+        <v>10.28031</v>
       </c>
       <c r="BA3" s="1">
-        <v>1011.310000</v>
+        <v>1011.31</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.140000</v>
+        <v>-143.13999999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>37019.657460</v>
+        <v>37019.657460000002</v>
       </c>
       <c r="BE3" s="1">
-        <v>10.283238</v>
+        <v>10.283238000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1056.260000</v>
+        <v>1056.26</v>
       </c>
       <c r="BG3" s="1">
-        <v>-228.552000</v>
+        <v>-228.55199999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>37031.113062</v>
+        <v>37031.113061999997</v>
       </c>
       <c r="BJ3" s="1">
-        <v>10.286420</v>
+        <v>10.28642</v>
       </c>
       <c r="BK3" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL3" s="1">
-        <v>-366.183000</v>
+        <v>-366.18299999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>37042.293416</v>
@@ -933,105 +1349,105 @@
         <v>10.289526</v>
       </c>
       <c r="BP3" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-579.685000</v>
+        <v>-579.68499999999995</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>37053.092777</v>
+        <v>37053.092776999998</v>
       </c>
       <c r="BT3" s="1">
-        <v>10.292526</v>
+        <v>10.292526000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1414.230000</v>
+        <v>1414.23</v>
       </c>
       <c r="BV3" s="1">
-        <v>-808.483000</v>
+        <v>-808.48299999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>37063.791002</v>
+        <v>37063.791001999998</v>
       </c>
       <c r="BY3" s="1">
         <v>10.295498</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1577.580000</v>
+        <v>1577.58</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1047.710000</v>
+        <v>-1047.71</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>37074.852765</v>
+        <v>37074.852765000003</v>
       </c>
       <c r="CD3" s="1">
-        <v>10.298570</v>
+        <v>10.29857</v>
       </c>
       <c r="CE3" s="1">
-        <v>1990.070000</v>
+        <v>1990.07</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1606.820000</v>
+        <v>-1606.82</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>36903.989457</v>
+        <v>36903.989457000003</v>
       </c>
       <c r="B4" s="1">
         <v>10.251108</v>
       </c>
       <c r="C4" s="1">
-        <v>909.419000</v>
+        <v>909.41899999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.642000</v>
+        <v>-175.642</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
         <v>36914.310008</v>
       </c>
       <c r="G4" s="1">
-        <v>10.253975</v>
+        <v>10.253975000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>923.588000</v>
+        <v>923.58799999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-151.152000</v>
+        <v>-151.15199999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>36925.452306</v>
+        <v>36925.452305999999</v>
       </c>
       <c r="L4" s="1">
-        <v>10.257070</v>
+        <v>10.257070000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.016000</v>
+        <v>944.01599999999996</v>
       </c>
       <c r="N4" s="1">
-        <v>-112.066000</v>
+        <v>-112.066</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>36935.933267</v>
@@ -1040,73 +1456,73 @@
         <v>10.259981</v>
       </c>
       <c r="R4" s="1">
-        <v>951.042000</v>
+        <v>951.04200000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-99.259300</v>
+        <v>-99.259299999999996</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>36946.184086</v>
+        <v>36946.184086000001</v>
       </c>
       <c r="V4" s="1">
         <v>10.262829</v>
       </c>
       <c r="W4" s="1">
-        <v>958.484000</v>
+        <v>958.48400000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-87.841200</v>
+        <v>-87.841200000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>36956.655637</v>
+        <v>36956.655637000003</v>
       </c>
       <c r="AA4" s="1">
-        <v>10.265738</v>
+        <v>10.265738000000001</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.897000</v>
+        <v>966.89700000000005</v>
       </c>
       <c r="AC4" s="1">
-        <v>-79.761800</v>
+        <v>-79.761799999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>36967.211977</v>
+        <v>36967.211976999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>10.268670</v>
+        <v>10.26867</v>
       </c>
       <c r="AG4" s="1">
-        <v>972.539000</v>
+        <v>972.53899999999999</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.775900</v>
+        <v>-79.775899999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>36977.707324</v>
+        <v>36977.707324000003</v>
       </c>
       <c r="AK4" s="1">
         <v>10.271585</v>
       </c>
       <c r="AL4" s="1">
-        <v>980.960000</v>
+        <v>980.96</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.707900</v>
+        <v>-87.707899999999995</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>36988.009758</v>
@@ -1115,285 +1531,285 @@
         <v>10.274447</v>
       </c>
       <c r="AQ4" s="1">
-        <v>990.312000</v>
+        <v>990.31200000000001</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.703000</v>
+        <v>-102.703</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>36998.702491</v>
+        <v>36998.702490999996</v>
       </c>
       <c r="AU4" s="1">
         <v>10.277417</v>
       </c>
       <c r="AV4" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.322000</v>
+        <v>-124.322</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>37009.419074</v>
+        <v>37009.419073999998</v>
       </c>
       <c r="AZ4" s="1">
-        <v>10.280394</v>
+        <v>10.280393999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.127000</v>
+        <v>-143.12700000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>37019.988790</v>
+        <v>37019.988790000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>10.283330</v>
+        <v>10.283329999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1056.260000</v>
+        <v>1056.26</v>
       </c>
       <c r="BG4" s="1">
-        <v>-228.556000</v>
+        <v>-228.55600000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>37031.512342</v>
+        <v>37031.512342000002</v>
       </c>
       <c r="BJ4" s="1">
         <v>10.286531</v>
       </c>
       <c r="BK4" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-366.183000</v>
+        <v>-366.18299999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>37042.711052</v>
+        <v>37042.711051999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>10.289642</v>
+        <v>10.289642000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-579.663000</v>
+        <v>-579.66300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>37053.505977</v>
+        <v>37053.505977000001</v>
       </c>
       <c r="BT4" s="1">
         <v>10.292641</v>
       </c>
       <c r="BU4" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV4" s="1">
-        <v>-808.558000</v>
+        <v>-808.55799999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>37064.239897</v>
+        <v>37064.239896999999</v>
       </c>
       <c r="BY4" s="1">
         <v>10.295622</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1577.550000</v>
+        <v>1577.55</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1047.620000</v>
+        <v>-1047.6199999999999</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>37075.383021</v>
+        <v>37075.383021000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>10.298718</v>
+        <v>10.298717999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1989.690000</v>
+        <v>1989.69</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1608.320000</v>
+        <v>-1608.32</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>36904.628797</v>
+        <v>36904.628796999998</v>
       </c>
       <c r="B5" s="1">
         <v>10.251286</v>
       </c>
       <c r="C5" s="1">
-        <v>909.310000</v>
+        <v>909.31</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.705000</v>
+        <v>-175.70500000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>36914.960959</v>
+        <v>36914.960959000004</v>
       </c>
       <c r="G5" s="1">
         <v>10.254156</v>
       </c>
       <c r="H5" s="1">
-        <v>923.207000</v>
+        <v>923.20699999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-151.149000</v>
+        <v>-151.149</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>36925.825481</v>
       </c>
       <c r="L5" s="1">
-        <v>10.257174</v>
+        <v>10.257173999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>943.739000</v>
+        <v>943.73900000000003</v>
       </c>
       <c r="N5" s="1">
-        <v>-112.117000</v>
+        <v>-112.117</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>36936.318658</v>
+        <v>36936.318657999997</v>
       </c>
       <c r="Q5" s="1">
-        <v>10.260089</v>
+        <v>10.260089000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>951.076000</v>
+        <v>951.07600000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-99.305100</v>
+        <v>-99.305099999999996</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>36946.530790</v>
+        <v>36946.530789999997</v>
       </c>
       <c r="V5" s="1">
-        <v>10.262925</v>
+        <v>10.262924999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>958.460000</v>
+        <v>958.46</v>
       </c>
       <c r="X5" s="1">
-        <v>-87.795500</v>
+        <v>-87.795500000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>36957.004313</v>
+        <v>36957.004312999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>10.265835</v>
+        <v>10.265834999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.919000</v>
+        <v>966.91899999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-79.838800</v>
+        <v>-79.838800000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>36967.553722</v>
+        <v>36967.553721999997</v>
       </c>
       <c r="AF5" s="1">
         <v>10.268765</v>
       </c>
       <c r="AG5" s="1">
-        <v>972.548000</v>
+        <v>972.548</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.746700</v>
+        <v>-79.746700000000004</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>36978.126971</v>
+        <v>36978.126970999998</v>
       </c>
       <c r="AK5" s="1">
-        <v>10.271702</v>
+        <v>10.271701999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>980.998000</v>
+        <v>980.99800000000005</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.715900</v>
+        <v>-87.715900000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>36988.428390</v>
+        <v>36988.428390000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>10.274563</v>
+        <v>10.274563000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>990.310000</v>
+        <v>990.31</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.713000</v>
+        <v>-102.71299999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>36999.007520</v>
+        <v>36999.007519999999</v>
       </c>
       <c r="AU5" s="1">
         <v>10.277502</v>
       </c>
       <c r="AV5" s="1">
-        <v>1001.700000</v>
+        <v>1001.7</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.335000</v>
+        <v>-124.33499999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>37009.780627</v>
@@ -1402,377 +1818,377 @@
         <v>10.280495</v>
       </c>
       <c r="BA5" s="1">
-        <v>1011.320000</v>
+        <v>1011.32</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.153000</v>
+        <v>-143.15299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>37020.349380</v>
+        <v>37020.34938</v>
       </c>
       <c r="BE5" s="1">
-        <v>10.283430</v>
+        <v>10.283429999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1056.250000</v>
+        <v>1056.25</v>
       </c>
       <c r="BG5" s="1">
-        <v>-228.561000</v>
+        <v>-228.56100000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>37031.889798</v>
+        <v>37031.889797999997</v>
       </c>
       <c r="BJ5" s="1">
         <v>10.286636</v>
       </c>
       <c r="BK5" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-366.191000</v>
+        <v>-366.19099999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>37043.529413</v>
+        <v>37043.529412999997</v>
       </c>
       <c r="BO5" s="1">
-        <v>10.289869</v>
+        <v>10.289868999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-579.737000</v>
+        <v>-579.73699999999997</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>37053.929528</v>
+        <v>37053.929528000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>10.292758</v>
+        <v>10.292757999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1414.220000</v>
+        <v>1414.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-808.549000</v>
+        <v>-808.54899999999998</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>37064.669930</v>
+        <v>37064.669929999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>10.295742</v>
+        <v>10.295742000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1577.480000</v>
+        <v>1577.48</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>37075.899323</v>
+        <v>37075.899322999998</v>
       </c>
       <c r="CD5" s="1">
         <v>10.298861</v>
       </c>
       <c r="CE5" s="1">
-        <v>1990.530000</v>
+        <v>1990.53</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1606.860000</v>
+        <v>-1606.86</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>36905.012700</v>
+        <v>36905.012699999999</v>
       </c>
       <c r="B6" s="1">
-        <v>10.251392</v>
+        <v>10.251391999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>909.437000</v>
+        <v>909.43700000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.888000</v>
+        <v>-175.88800000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>36915.342350</v>
+        <v>36915.342349999999</v>
       </c>
       <c r="G6" s="1">
-        <v>10.254262</v>
+        <v>10.254262000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>923.338000</v>
+        <v>923.33799999999997</v>
       </c>
       <c r="I6" s="1">
-        <v>-151.384000</v>
+        <v>-151.38399999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>36926.169520</v>
+        <v>36926.169520000003</v>
       </c>
       <c r="L6" s="1">
-        <v>10.257269</v>
+        <v>10.257269000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>943.883000</v>
+        <v>943.88300000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-112.013000</v>
+        <v>-112.01300000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>36936.672343</v>
+        <v>36936.672342999998</v>
       </c>
       <c r="Q6" s="1">
         <v>10.260187</v>
       </c>
       <c r="R6" s="1">
-        <v>951.052000</v>
+        <v>951.05200000000002</v>
       </c>
       <c r="S6" s="1">
-        <v>-99.339300</v>
+        <v>-99.339299999999994</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>36946.871541</v>
       </c>
       <c r="V6" s="1">
-        <v>10.263020</v>
+        <v>10.263019999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>958.442000</v>
+        <v>958.44200000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-87.734700</v>
+        <v>-87.734700000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>36957.419499</v>
+        <v>36957.419499000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>10.265950</v>
+        <v>10.26595</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.920000</v>
+        <v>966.92</v>
       </c>
       <c r="AC6" s="1">
-        <v>-79.783200</v>
+        <v>-79.783199999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>36967.971355</v>
+        <v>36967.971355000001</v>
       </c>
       <c r="AF6" s="1">
         <v>10.268881</v>
       </c>
       <c r="AG6" s="1">
-        <v>972.546000</v>
+        <v>972.54600000000005</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.755100</v>
+        <v>-79.755099999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>36978.423547</v>
+        <v>36978.423546999999</v>
       </c>
       <c r="AK6" s="1">
         <v>10.271784</v>
       </c>
       <c r="AL6" s="1">
-        <v>980.956000</v>
+        <v>980.95600000000002</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.725700</v>
+        <v>-87.725700000000003</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>36988.730415</v>
+        <v>36988.730414999998</v>
       </c>
       <c r="AP6" s="1">
         <v>10.274647</v>
       </c>
       <c r="AQ6" s="1">
-        <v>990.306000</v>
+        <v>990.30600000000004</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.719000</v>
+        <v>-102.71899999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>36999.374559</v>
+        <v>36999.374559000004</v>
       </c>
       <c r="AU6" s="1">
         <v>10.277604</v>
       </c>
       <c r="AV6" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.319000</v>
+        <v>-124.319</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>37010.137281</v>
+        <v>37010.137281000003</v>
       </c>
       <c r="AZ6" s="1">
-        <v>10.280594</v>
+        <v>10.280594000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1011.310000</v>
+        <v>1011.31</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.123000</v>
+        <v>-143.12299999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>37020.710964</v>
+        <v>37020.710963999998</v>
       </c>
       <c r="BE6" s="1">
         <v>10.283531</v>
       </c>
       <c r="BF6" s="1">
-        <v>1056.280000</v>
+        <v>1056.28</v>
       </c>
       <c r="BG6" s="1">
-        <v>-228.584000</v>
+        <v>-228.584</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>37032.640243</v>
+        <v>37032.640243000002</v>
       </c>
       <c r="BJ6" s="1">
         <v>10.286845</v>
       </c>
       <c r="BK6" s="1">
-        <v>1135.350000</v>
+        <v>1135.3499999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-366.195000</v>
+        <v>-366.19499999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>37043.945583</v>
+        <v>37043.945583000001</v>
       </c>
       <c r="BO6" s="1">
         <v>10.289985</v>
       </c>
       <c r="BP6" s="1">
-        <v>1266.630000</v>
+        <v>1266.6300000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-579.676000</v>
+        <v>-579.67600000000004</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>37054.334791</v>
+        <v>37054.334791000001</v>
       </c>
       <c r="BT6" s="1">
         <v>10.292871</v>
       </c>
       <c r="BU6" s="1">
-        <v>1414.260000</v>
+        <v>1414.26</v>
       </c>
       <c r="BV6" s="1">
-        <v>-808.568000</v>
+        <v>-808.56799999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>37065.092521</v>
+        <v>37065.092520999999</v>
       </c>
       <c r="BY6" s="1">
         <v>10.295859</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1577.440000</v>
+        <v>1577.44</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1047.730000</v>
+        <v>-1047.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>37076.733634</v>
+        <v>37076.733633999997</v>
       </c>
       <c r="CD6" s="1">
-        <v>10.299093</v>
+        <v>10.299092999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1989.990000</v>
+        <v>1989.99</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1607.020000</v>
+        <v>-1607.02</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>36905.351933</v>
+        <v>36905.351932999998</v>
       </c>
       <c r="B7" s="1">
-        <v>10.251487</v>
+        <v>10.251486999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>909.381000</v>
+        <v>909.38099999999997</v>
       </c>
       <c r="D7" s="1">
-        <v>-175.772000</v>
+        <v>-175.77199999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>36915.687071</v>
@@ -1781,103 +2197,103 @@
         <v>10.254358</v>
       </c>
       <c r="H7" s="1">
-        <v>923.454000</v>
+        <v>923.45399999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-151.389000</v>
+        <v>-151.38900000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>36926.517252</v>
+        <v>36926.517251999998</v>
       </c>
       <c r="L7" s="1">
-        <v>10.257366</v>
+        <v>10.257365999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>943.872000</v>
+        <v>943.87199999999996</v>
       </c>
       <c r="N7" s="1">
-        <v>-112.249000</v>
+        <v>-112.249</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>36937.016566</v>
+        <v>36937.016565999998</v>
       </c>
       <c r="Q7" s="1">
         <v>10.260282</v>
       </c>
       <c r="R7" s="1">
-        <v>951.030000</v>
+        <v>951.03</v>
       </c>
       <c r="S7" s="1">
-        <v>-99.320900</v>
+        <v>-99.320899999999995</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>36947.290281</v>
+        <v>36947.290281000001</v>
       </c>
       <c r="V7" s="1">
-        <v>10.263136</v>
+        <v>10.263135999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>958.443000</v>
+        <v>958.44299999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-87.744800</v>
+        <v>-87.744799999999998</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>36957.709622</v>
+        <v>36957.709622000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>10.266030</v>
+        <v>10.266030000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>967.050000</v>
+        <v>967.05</v>
       </c>
       <c r="AC7" s="1">
-        <v>-79.798300</v>
+        <v>-79.798299999999998</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>36968.249145</v>
+        <v>36968.249145000002</v>
       </c>
       <c r="AF7" s="1">
         <v>10.268958</v>
       </c>
       <c r="AG7" s="1">
-        <v>972.551000</v>
+        <v>972.55100000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.761800</v>
+        <v>-79.761799999999994</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>36978.770876</v>
+        <v>36978.770876000002</v>
       </c>
       <c r="AK7" s="1">
         <v>10.271881</v>
       </c>
       <c r="AL7" s="1">
-        <v>980.926000</v>
+        <v>980.92600000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.696200</v>
+        <v>-87.696200000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>36989.095469</v>
@@ -1886,240 +2302,240 @@
         <v>10.274749</v>
       </c>
       <c r="AQ7" s="1">
-        <v>990.318000</v>
+        <v>990.31799999999998</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.712000</v>
+        <v>-102.712</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>36999.739152</v>
+        <v>36999.739152000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>10.277705</v>
+        <v>10.277704999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.305000</v>
+        <v>-124.30500000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>37010.854960</v>
+        <v>37010.854959999997</v>
       </c>
       <c r="AZ7" s="1">
-        <v>10.280793</v>
+        <v>10.280792999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.157000</v>
+        <v>-143.15700000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>37021.434132</v>
+        <v>37021.434132000002</v>
       </c>
       <c r="BE7" s="1">
-        <v>10.283732</v>
+        <v>10.283732000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1056.260000</v>
+        <v>1056.26</v>
       </c>
       <c r="BG7" s="1">
-        <v>-228.553000</v>
+        <v>-228.553</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>37033.014226</v>
+        <v>37033.014225999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>10.286948</v>
+        <v>10.286948000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1135.370000</v>
+        <v>1135.3699999999999</v>
       </c>
       <c r="BL7" s="1">
-        <v>-366.208000</v>
+        <v>-366.20800000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>37044.344836</v>
+        <v>37044.344835999997</v>
       </c>
       <c r="BO7" s="1">
         <v>10.290096</v>
       </c>
       <c r="BP7" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-579.714000</v>
+        <v>-579.71400000000006</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>37054.749446</v>
+        <v>37054.749446000002</v>
       </c>
       <c r="BT7" s="1">
-        <v>10.292986</v>
+        <v>10.292986000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV7" s="1">
-        <v>-808.543000</v>
+        <v>-808.54300000000001</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>37065.817143</v>
       </c>
       <c r="BY7" s="1">
-        <v>10.296060</v>
+        <v>10.296060000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1577.510000</v>
+        <v>1577.51</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1047.800000</v>
+        <v>-1047.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>37076.958815</v>
+        <v>37076.958814999998</v>
       </c>
       <c r="CD7" s="1">
-        <v>10.299155</v>
+        <v>10.299155000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1989.520000</v>
+        <v>1989.52</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1608.490000</v>
+        <v>-1608.49</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>36905.694188</v>
+        <v>36905.694188000001</v>
       </c>
       <c r="B8" s="1">
-        <v>10.251582</v>
+        <v>10.251582000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>909.357000</v>
+        <v>909.35699999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.826000</v>
+        <v>-175.82599999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>36916.034301</v>
       </c>
       <c r="G8" s="1">
-        <v>10.254454</v>
+        <v>10.254454000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>922.982000</v>
+        <v>922.98199999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.893000</v>
+        <v>-150.893</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>36926.938319</v>
+        <v>36926.938319000001</v>
       </c>
       <c r="L8" s="1">
-        <v>10.257483</v>
+        <v>10.257483000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>943.889000</v>
+        <v>943.88900000000001</v>
       </c>
       <c r="N8" s="1">
-        <v>-111.956000</v>
+        <v>-111.956</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>36937.437633</v>
+        <v>36937.437633000001</v>
       </c>
       <c r="Q8" s="1">
         <v>10.260399</v>
       </c>
       <c r="R8" s="1">
-        <v>951.015000</v>
+        <v>951.01499999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-99.314600</v>
+        <v>-99.314599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>36947.564482</v>
+        <v>36947.564482000002</v>
       </c>
       <c r="V8" s="1">
-        <v>10.263212</v>
+        <v>10.263211999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>958.509000</v>
+        <v>958.50900000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-87.821500</v>
+        <v>-87.8215</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>36958.058346</v>
+        <v>36958.058345999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>10.266127</v>
+        <v>10.266126999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.924000</v>
+        <v>966.92399999999998</v>
       </c>
       <c r="AC8" s="1">
-        <v>-79.889900</v>
+        <v>-79.889899999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>36968.593833</v>
+        <v>36968.593832999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>10.269054</v>
+        <v>10.269054000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>972.569000</v>
+        <v>972.56899999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.737100</v>
+        <v>-79.737099999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>36979.116489</v>
@@ -2128,88 +2544,88 @@
         <v>10.271977</v>
       </c>
       <c r="AL8" s="1">
-        <v>980.984000</v>
+        <v>980.98400000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.720700</v>
+        <v>-87.720699999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>36989.454108</v>
+        <v>36989.454107999998</v>
       </c>
       <c r="AP8" s="1">
         <v>10.274848</v>
       </c>
       <c r="AQ8" s="1">
-        <v>990.318000</v>
+        <v>990.31799999999998</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.722000</v>
+        <v>-102.72199999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>37000.470718</v>
+        <v>37000.470717999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>10.277909</v>
+        <v>10.277908999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1001.740000</v>
+        <v>1001.74</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.336000</v>
+        <v>-124.336</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>37011.214560</v>
+        <v>37011.21456</v>
       </c>
       <c r="AZ8" s="1">
-        <v>10.280893</v>
+        <v>10.280893000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.150000</v>
+        <v>-143.15</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>37021.824482</v>
+        <v>37021.824482000004</v>
       </c>
       <c r="BE8" s="1">
-        <v>10.283840</v>
+        <v>10.28384</v>
       </c>
       <c r="BF8" s="1">
-        <v>1056.290000</v>
+        <v>1056.29</v>
       </c>
       <c r="BG8" s="1">
-        <v>-228.575000</v>
+        <v>-228.57499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>37033.389730</v>
+        <v>37033.389730000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>10.287053</v>
       </c>
       <c r="BK8" s="1">
-        <v>1135.290000</v>
+        <v>1135.29</v>
       </c>
       <c r="BL8" s="1">
-        <v>-366.182000</v>
+        <v>-366.18200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>37045.067012</v>
@@ -2218,240 +2634,240 @@
         <v>10.290296</v>
       </c>
       <c r="BP8" s="1">
-        <v>1266.650000</v>
+        <v>1266.6500000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-579.702000</v>
+        <v>-579.702</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>37055.461670</v>
+        <v>37055.461669999997</v>
       </c>
       <c r="BT8" s="1">
         <v>10.293184</v>
       </c>
       <c r="BU8" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="BV8" s="1">
-        <v>-808.511000</v>
+        <v>-808.51099999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>37065.941145</v>
+        <v>37065.941144999997</v>
       </c>
       <c r="BY8" s="1">
-        <v>10.296095</v>
+        <v>10.296094999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1577.560000</v>
+        <v>1577.56</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1047.770000</v>
+        <v>-1047.77</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>37077.478703</v>
+        <v>37077.478703000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>10.299300</v>
+        <v>10.299300000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1989.550000</v>
+        <v>1989.55</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1607.670000</v>
+        <v>-1607.67</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>36906.106843</v>
+        <v>36906.106843000001</v>
       </c>
       <c r="B9" s="1">
-        <v>10.251696</v>
+        <v>10.251696000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>909.355000</v>
+        <v>909.35500000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.796000</v>
+        <v>-175.79599999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>36916.460334</v>
+        <v>36916.460334000003</v>
       </c>
       <c r="G9" s="1">
         <v>10.254572</v>
       </c>
       <c r="H9" s="1">
-        <v>922.993000</v>
+        <v>922.99300000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.798000</v>
+        <v>-150.798</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>36927.210622</v>
+        <v>36927.210621999999</v>
       </c>
       <c r="L9" s="1">
-        <v>10.257559</v>
+        <v>10.257559000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>943.902000</v>
+        <v>943.90200000000004</v>
       </c>
       <c r="N9" s="1">
-        <v>-111.907000</v>
+        <v>-111.907</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>36937.731265</v>
+        <v>36937.731265000002</v>
       </c>
       <c r="Q9" s="1">
         <v>10.260481</v>
       </c>
       <c r="R9" s="1">
-        <v>950.997000</v>
+        <v>950.99699999999996</v>
       </c>
       <c r="S9" s="1">
-        <v>-99.287100</v>
+        <v>-99.287099999999995</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>36947.907685</v>
+        <v>36947.907684999998</v>
       </c>
       <c r="V9" s="1">
         <v>10.263308</v>
       </c>
       <c r="W9" s="1">
-        <v>958.528000</v>
+        <v>958.52800000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-87.782900</v>
+        <v>-87.782899999999998</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>36958.407530</v>
+        <v>36958.407529999997</v>
       </c>
       <c r="AA9" s="1">
-        <v>10.266224</v>
+        <v>10.266223999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.960000</v>
+        <v>966.96</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.724300</v>
+        <v>-79.724299999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>36968.939545</v>
+        <v>36968.939545000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>10.269150</v>
+        <v>10.26915</v>
       </c>
       <c r="AG9" s="1">
-        <v>972.528000</v>
+        <v>972.52800000000002</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.776600</v>
+        <v>-79.776600000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>36979.817801</v>
+        <v>36979.817800999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>10.272172</v>
+        <v>10.272171999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>980.935000</v>
+        <v>980.93499999999995</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.707600</v>
+        <v>-87.707599999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>36990.175788</v>
       </c>
       <c r="AP9" s="1">
-        <v>10.275049</v>
+        <v>10.275048999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>990.314000</v>
+        <v>990.31399999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.682000</v>
+        <v>-102.682</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>37000.861071</v>
+        <v>37000.861070999999</v>
       </c>
       <c r="AU9" s="1">
         <v>10.278017</v>
       </c>
       <c r="AV9" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.330000</v>
+        <v>-124.33</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>37011.569729</v>
+        <v>37011.569729000003</v>
       </c>
       <c r="AZ9" s="1">
-        <v>10.280992</v>
+        <v>10.280991999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1011.330000</v>
+        <v>1011.33</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.144000</v>
+        <v>-143.14400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>37022.204449</v>
+        <v>37022.204448999997</v>
       </c>
       <c r="BE9" s="1">
         <v>10.283946</v>
       </c>
       <c r="BF9" s="1">
-        <v>1056.300000</v>
+        <v>1056.3</v>
       </c>
       <c r="BG9" s="1">
-        <v>-228.574000</v>
+        <v>-228.57400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>37034.081628</v>
@@ -2460,180 +2876,180 @@
         <v>10.287245</v>
       </c>
       <c r="BK9" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>37045.178611</v>
+        <v>37045.178611000003</v>
       </c>
       <c r="BO9" s="1">
         <v>10.290327</v>
       </c>
       <c r="BP9" s="1">
-        <v>1266.660000</v>
+        <v>1266.6600000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-579.706000</v>
+        <v>-579.70600000000002</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>37055.578757</v>
+        <v>37055.578757000003</v>
       </c>
       <c r="BT9" s="1">
-        <v>10.293216</v>
+        <v>10.293215999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>1414.170000</v>
+        <v>1414.17</v>
       </c>
       <c r="BV9" s="1">
-        <v>-808.529000</v>
+        <v>-808.529</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>37066.390519</v>
       </c>
       <c r="BY9" s="1">
-        <v>10.296220</v>
+        <v>10.29622</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1577.600000</v>
+        <v>1577.6</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>37078.032643</v>
+        <v>37078.032642999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>10.299454</v>
+        <v>10.299454000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1990.030000</v>
+        <v>1990.03</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1606.710000</v>
+        <v>-1606.71</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>36906.382618</v>
+        <v>36906.382618000003</v>
       </c>
       <c r="B10" s="1">
         <v>10.251773</v>
       </c>
       <c r="C10" s="1">
-        <v>909.479000</v>
+        <v>909.47900000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-175.700000</v>
+        <v>-175.7</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>36916.739582</v>
+        <v>36916.739582000002</v>
       </c>
       <c r="G10" s="1">
-        <v>10.254650</v>
+        <v>10.25465</v>
       </c>
       <c r="H10" s="1">
-        <v>923.594000</v>
+        <v>923.59400000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-150.807000</v>
+        <v>-150.80699999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>36927.554846</v>
+        <v>36927.554845999999</v>
       </c>
       <c r="L10" s="1">
         <v>10.257654</v>
       </c>
       <c r="M10" s="1">
-        <v>943.741000</v>
+        <v>943.74099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-112.147000</v>
+        <v>-112.14700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>36938.067554</v>
+        <v>36938.067554000001</v>
       </c>
       <c r="Q10" s="1">
         <v>10.260574</v>
       </c>
       <c r="R10" s="1">
-        <v>951.010000</v>
+        <v>951.01</v>
       </c>
       <c r="S10" s="1">
-        <v>-99.269100</v>
+        <v>-99.269099999999995</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>36948.250453</v>
+        <v>36948.250453000001</v>
       </c>
       <c r="V10" s="1">
         <v>10.263403</v>
       </c>
       <c r="W10" s="1">
-        <v>958.473000</v>
+        <v>958.47299999999996</v>
       </c>
       <c r="X10" s="1">
-        <v>-87.783500</v>
+        <v>-87.783500000000004</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>36959.101893</v>
+        <v>36959.101892999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>10.266417</v>
+        <v>10.266417000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>967.023000</v>
+        <v>967.02300000000002</v>
       </c>
       <c r="AC10" s="1">
-        <v>-79.811400</v>
+        <v>-79.811400000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>36969.624024</v>
+        <v>36969.624023999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>10.269340</v>
+        <v>10.26934</v>
       </c>
       <c r="AG10" s="1">
-        <v>972.554000</v>
+        <v>972.55399999999997</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.761700</v>
+        <v>-79.761700000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>36980.163514</v>
@@ -2642,151 +3058,151 @@
         <v>10.272268</v>
       </c>
       <c r="AL10" s="1">
-        <v>980.938000</v>
+        <v>980.93799999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.723500</v>
+        <v>-87.723500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>36990.529901</v>
+        <v>36990.529901000002</v>
       </c>
       <c r="AP10" s="1">
         <v>10.275147</v>
       </c>
       <c r="AQ10" s="1">
-        <v>990.289000</v>
+        <v>990.28899999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.716000</v>
+        <v>-102.71599999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>37001.226156</v>
+        <v>37001.226155999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>10.278118</v>
+        <v>10.278117999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.327000</v>
+        <v>-124.327</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>37012.240810</v>
+        <v>37012.240810000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>10.281178</v>
+        <v>10.281178000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1011.320000</v>
+        <v>1011.32</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.142000</v>
+        <v>-143.142</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>37022.870578</v>
+        <v>37022.870578000002</v>
       </c>
       <c r="BE10" s="1">
         <v>10.284131</v>
       </c>
       <c r="BF10" s="1">
-        <v>1056.310000</v>
+        <v>1056.31</v>
       </c>
       <c r="BG10" s="1">
-        <v>-228.580000</v>
+        <v>-228.58</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>37034.515617</v>
+        <v>37034.515616999997</v>
       </c>
       <c r="BJ10" s="1">
-        <v>10.287365</v>
+        <v>10.287364999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-366.180000</v>
+        <v>-366.18</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>37045.584374</v>
+        <v>37045.584373999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>10.290440</v>
+        <v>10.29044</v>
       </c>
       <c r="BP10" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-579.679000</v>
+        <v>-579.67899999999997</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>37056.015700</v>
+        <v>37056.015700000004</v>
       </c>
       <c r="BT10" s="1">
         <v>10.293338</v>
       </c>
       <c r="BU10" s="1">
-        <v>1414.170000</v>
+        <v>1414.17</v>
       </c>
       <c r="BV10" s="1">
-        <v>-808.531000</v>
+        <v>-808.53099999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>37066.819591</v>
+        <v>37066.819590999999</v>
       </c>
       <c r="BY10" s="1">
         <v>10.296339</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1577.480000</v>
+        <v>1577.48</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1047.590000</v>
+        <v>-1047.5899999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>37078.560855</v>
+        <v>37078.560855000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>10.299600</v>
+        <v>10.2996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1989.710000</v>
+        <v>1989.71</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1608.370000</v>
+        <v>-1608.37</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>36906.724402</v>
       </c>
@@ -2794,148 +3210,148 @@
         <v>10.251868</v>
       </c>
       <c r="C11" s="1">
-        <v>909.279000</v>
+        <v>909.279</v>
       </c>
       <c r="D11" s="1">
-        <v>-175.873000</v>
+        <v>-175.87299999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>36917.084300</v>
+        <v>36917.084300000002</v>
       </c>
       <c r="G11" s="1">
-        <v>10.254746</v>
+        <v>10.254746000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>922.998000</v>
+        <v>922.99800000000005</v>
       </c>
       <c r="I11" s="1">
-        <v>-150.752000</v>
+        <v>-150.75200000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>36927.898606</v>
+        <v>36927.898606000002</v>
       </c>
       <c r="L11" s="1">
-        <v>10.257750</v>
+        <v>10.25775</v>
       </c>
       <c r="M11" s="1">
-        <v>944.208000</v>
+        <v>944.20799999999997</v>
       </c>
       <c r="N11" s="1">
-        <v>-111.901000</v>
+        <v>-111.901</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>36938.630036</v>
+        <v>36938.630036000002</v>
       </c>
       <c r="Q11" s="1">
         <v>10.260731</v>
       </c>
       <c r="R11" s="1">
-        <v>951.031000</v>
+        <v>951.03099999999995</v>
       </c>
       <c r="S11" s="1">
-        <v>-99.255500</v>
+        <v>-99.255499999999998</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>36948.937874</v>
+        <v>36948.937874000003</v>
       </c>
       <c r="V11" s="1">
-        <v>10.263594</v>
+        <v>10.263593999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>958.383000</v>
+        <v>958.38300000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-87.771800</v>
+        <v>-87.771799999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>36959.452594</v>
+        <v>36959.452594000002</v>
       </c>
       <c r="AA11" s="1">
         <v>10.266515</v>
       </c>
       <c r="AB11" s="1">
-        <v>967.001000</v>
+        <v>967.00099999999998</v>
       </c>
       <c r="AC11" s="1">
-        <v>-79.813500</v>
+        <v>-79.813500000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>36969.967255</v>
+        <v>36969.967255000003</v>
       </c>
       <c r="AF11" s="1">
         <v>10.269435</v>
       </c>
       <c r="AG11" s="1">
-        <v>972.585000</v>
+        <v>972.58500000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.766700</v>
+        <v>-79.7667</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>36980.513228</v>
+        <v>36980.513228000003</v>
       </c>
       <c r="AK11" s="1">
-        <v>10.272365</v>
+        <v>10.272365000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>980.958000</v>
+        <v>980.95799999999997</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.711200</v>
+        <v>-87.711200000000005</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>36991.200490</v>
+        <v>36991.200490000003</v>
       </c>
       <c r="AP11" s="1">
         <v>10.275333</v>
       </c>
       <c r="AQ11" s="1">
-        <v>990.338000</v>
+        <v>990.33799999999997</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.722000</v>
+        <v>-102.72199999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>37001.913607</v>
+        <v>37001.913607000002</v>
       </c>
       <c r="AU11" s="1">
         <v>10.278309</v>
       </c>
       <c r="AV11" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.319000</v>
+        <v>-124.319</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>37012.647504</v>
@@ -2944,106 +3360,106 @@
         <v>10.281291</v>
       </c>
       <c r="BA11" s="1">
-        <v>1011.320000</v>
+        <v>1011.32</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.140000</v>
+        <v>-143.13999999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>37023.288176</v>
+        <v>37023.288176000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>10.284247</v>
+        <v>10.284247000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1056.280000</v>
+        <v>1056.28</v>
       </c>
       <c r="BG11" s="1">
-        <v>-228.546000</v>
+        <v>-228.54599999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>37034.893569</v>
       </c>
       <c r="BJ11" s="1">
-        <v>10.287470</v>
+        <v>10.287470000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-366.196000</v>
+        <v>-366.19600000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>37045.981427</v>
+        <v>37045.981426999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>10.290550</v>
+        <v>10.29055</v>
       </c>
       <c r="BP11" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-579.737000</v>
+        <v>-579.73699999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>37056.443278</v>
+        <v>37056.443277999999</v>
       </c>
       <c r="BT11" s="1">
-        <v>10.293456</v>
+        <v>10.293456000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="BV11" s="1">
-        <v>-808.531000</v>
+        <v>-808.53099999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>37067.240663</v>
+        <v>37067.240662999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>10.296456</v>
+        <v>10.296455999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1577.500000</v>
+        <v>1577.5</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1047.730000</v>
+        <v>-1047.73</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>37079.078690</v>
+        <v>37079.078690000002</v>
       </c>
       <c r="CD11" s="1">
         <v>10.299744</v>
       </c>
       <c r="CE11" s="1">
-        <v>1991.070000</v>
+        <v>1991.07</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1608.550000</v>
+        <v>-1608.55</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>36907.068089</v>
       </c>
@@ -3051,223 +3467,223 @@
         <v>10.251963</v>
       </c>
       <c r="C12" s="1">
-        <v>909.290000</v>
+        <v>909.29</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.760000</v>
+        <v>-175.76</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>36917.429019</v>
+        <v>36917.429019000003</v>
       </c>
       <c r="G12" s="1">
-        <v>10.254841</v>
+        <v>10.254841000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>923.236000</v>
+        <v>923.23599999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-151.299000</v>
+        <v>-151.29900000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>36928.592478</v>
+        <v>36928.592477999999</v>
       </c>
       <c r="L12" s="1">
         <v>10.257942</v>
       </c>
       <c r="M12" s="1">
-        <v>943.910000</v>
+        <v>943.91</v>
       </c>
       <c r="N12" s="1">
-        <v>-111.962000</v>
+        <v>-111.962</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>36938.763439</v>
+        <v>36938.763439000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>10.260768</v>
+        <v>10.260768000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>951.030000</v>
+        <v>951.03</v>
       </c>
       <c r="S12" s="1">
-        <v>-99.302400</v>
+        <v>-99.302400000000006</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>36949.280114</v>
+        <v>36949.280114000001</v>
       </c>
       <c r="V12" s="1">
-        <v>10.263689</v>
+        <v>10.263688999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>958.452000</v>
+        <v>958.452</v>
       </c>
       <c r="X12" s="1">
-        <v>-87.758900</v>
+        <v>-87.758899999999997</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>36959.800291</v>
       </c>
       <c r="AA12" s="1">
-        <v>10.266611</v>
+        <v>10.266610999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.888000</v>
+        <v>966.88800000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-79.738200</v>
+        <v>-79.738200000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>36970.309495</v>
+        <v>36970.309495000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>10.269530</v>
+        <v>10.26953</v>
       </c>
       <c r="AG12" s="1">
-        <v>972.601000</v>
+        <v>972.601</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.772000</v>
+        <v>-79.772000000000006</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>36981.175849</v>
+        <v>36981.175848999999</v>
       </c>
       <c r="AK12" s="1">
         <v>10.272549</v>
       </c>
       <c r="AL12" s="1">
-        <v>980.970000</v>
+        <v>980.97</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.714400</v>
+        <v>-87.714399999999998</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>36991.641433</v>
+        <v>36991.641432999997</v>
       </c>
       <c r="AP12" s="1">
         <v>10.275456</v>
       </c>
       <c r="AQ12" s="1">
-        <v>990.343000</v>
+        <v>990.34299999999996</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.701000</v>
+        <v>-102.70099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>37002.319805</v>
+        <v>37002.319804999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>10.278422</v>
+        <v>10.278422000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>37013.034878</v>
+        <v>37013.034877999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>10.281399</v>
       </c>
       <c r="BA12" s="1">
-        <v>1011.280000</v>
+        <v>1011.28</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.128000</v>
+        <v>-143.12799999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>37023.679024</v>
+        <v>37023.679023999997</v>
       </c>
       <c r="BE12" s="1">
         <v>10.284355</v>
       </c>
       <c r="BF12" s="1">
-        <v>1056.290000</v>
+        <v>1056.29</v>
       </c>
       <c r="BG12" s="1">
-        <v>-228.570000</v>
+        <v>-228.57</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>37035.267552</v>
+        <v>37035.267551999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>10.287574</v>
+        <v>10.287573999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL12" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>37046.409186</v>
+        <v>37046.409185999997</v>
       </c>
       <c r="BO12" s="1">
-        <v>10.290669</v>
+        <v>10.290668999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-579.710000</v>
+        <v>-579.71</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>37056.856456</v>
+        <v>37056.856456000001</v>
       </c>
       <c r="BT12" s="1">
         <v>10.293571</v>
       </c>
       <c r="BU12" s="1">
-        <v>1414.220000</v>
+        <v>1414.22</v>
       </c>
       <c r="BV12" s="1">
-        <v>-808.466000</v>
+        <v>-808.46600000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>37067.662935</v>
@@ -3276,210 +3692,210 @@
         <v>10.296573</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1577.480000</v>
+        <v>1577.48</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1047.810000</v>
+        <v>-1047.81</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>37079.596999</v>
+        <v>37079.596999000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>10.299888</v>
+        <v>10.299887999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1991.170000</v>
+        <v>1991.17</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1607.250000</v>
+        <v>-1607.25</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>36907.747641</v>
+        <v>36907.747641000002</v>
       </c>
       <c r="B13" s="1">
-        <v>10.252152</v>
+        <v>10.252152000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>909.218000</v>
+        <v>909.21799999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-175.917000</v>
+        <v>-175.917</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>36918.106094</v>
+        <v>36918.106094000002</v>
       </c>
       <c r="G13" s="1">
         <v>10.255029</v>
       </c>
       <c r="H13" s="1">
-        <v>923.396000</v>
+        <v>923.39599999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.541000</v>
+        <v>-150.541</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>36928.938685</v>
+        <v>36928.938685000001</v>
       </c>
       <c r="L13" s="1">
         <v>10.258039</v>
       </c>
       <c r="M13" s="1">
-        <v>943.834000</v>
+        <v>943.83399999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-112.139000</v>
+        <v>-112.139</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>36939.112159</v>
+        <v>36939.112158999997</v>
       </c>
       <c r="Q13" s="1">
         <v>10.260864</v>
       </c>
       <c r="R13" s="1">
-        <v>950.987000</v>
+        <v>950.98699999999997</v>
       </c>
       <c r="S13" s="1">
-        <v>-99.280100</v>
+        <v>-99.280100000000004</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>36949.624337</v>
+        <v>36949.624337000001</v>
       </c>
       <c r="V13" s="1">
         <v>10.263785</v>
       </c>
       <c r="W13" s="1">
-        <v>958.451000</v>
+        <v>958.45100000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-87.763700</v>
+        <v>-87.7637</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>36960.461428</v>
+        <v>36960.461428000002</v>
       </c>
       <c r="AA13" s="1">
         <v>10.266795</v>
       </c>
       <c r="AB13" s="1">
-        <v>967.018000</v>
+        <v>967.01800000000003</v>
       </c>
       <c r="AC13" s="1">
-        <v>-79.813200</v>
+        <v>-79.813199999999995</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>36970.960779</v>
+        <v>36970.960779000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>10.269711</v>
+        <v>10.269710999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>972.586000</v>
+        <v>972.58600000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.755800</v>
+        <v>-79.755799999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>36981.560284</v>
+        <v>36981.560283999999</v>
       </c>
       <c r="AK13" s="1">
         <v>10.272656</v>
       </c>
       <c r="AL13" s="1">
-        <v>980.951000</v>
+        <v>980.95100000000002</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.707700</v>
+        <v>-87.707700000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>36992.002522</v>
+        <v>36992.002522000003</v>
       </c>
       <c r="AP13" s="1">
         <v>10.275556</v>
       </c>
       <c r="AQ13" s="1">
-        <v>990.322000</v>
+        <v>990.322</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.703000</v>
+        <v>-102.703</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>37002.714620</v>
+        <v>37002.714619999999</v>
       </c>
       <c r="AU13" s="1">
         <v>10.278532</v>
       </c>
       <c r="AV13" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.309000</v>
+        <v>-124.309</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>37013.391998</v>
+        <v>37013.391997999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>10.281498</v>
+        <v>10.281497999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1011.290000</v>
+        <v>1011.29</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.135000</v>
+        <v>-143.13499999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>37024.038660</v>
+        <v>37024.038659999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>10.284455</v>
+        <v>10.284454999999999</v>
       </c>
       <c r="BF13" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG13" s="1">
-        <v>-228.576000</v>
+        <v>-228.57599999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>37035.689649</v>
@@ -3488,557 +3904,557 @@
         <v>10.287692</v>
       </c>
       <c r="BK13" s="1">
-        <v>1135.360000</v>
+        <v>1135.3599999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-366.192000</v>
+        <v>-366.19200000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>37046.798586</v>
+        <v>37046.798585999997</v>
       </c>
       <c r="BO13" s="1">
         <v>10.290777</v>
       </c>
       <c r="BP13" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-579.744000</v>
+        <v>-579.74400000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>37057.285956</v>
       </c>
       <c r="BT13" s="1">
-        <v>10.293691</v>
+        <v>10.293691000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1414.230000</v>
+        <v>1414.23</v>
       </c>
       <c r="BV13" s="1">
-        <v>-808.522000</v>
+        <v>-808.52200000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>37068.086874</v>
+        <v>37068.086874000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>10.296691</v>
+        <v>10.296690999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1577.410000</v>
+        <v>1577.41</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1047.630000</v>
+        <v>-1047.6300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>37080.115812</v>
+        <v>37080.115811999996</v>
       </c>
       <c r="CD13" s="1">
         <v>10.300032</v>
       </c>
       <c r="CE13" s="1">
-        <v>1991.620000</v>
+        <v>1991.62</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1607.540000</v>
+        <v>-1607.54</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>36908.091336</v>
+        <v>36908.091335999998</v>
       </c>
       <c r="B14" s="1">
         <v>10.252248</v>
       </c>
       <c r="C14" s="1">
-        <v>909.281000</v>
+        <v>909.28099999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.834000</v>
+        <v>-175.834</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>36918.462187</v>
+        <v>36918.462186999997</v>
       </c>
       <c r="G14" s="1">
-        <v>10.255128</v>
+        <v>10.255127999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>923.152000</v>
+        <v>923.15200000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-150.997000</v>
+        <v>-150.99700000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>36929.287870</v>
+        <v>36929.28787</v>
       </c>
       <c r="L14" s="1">
         <v>10.258136</v>
       </c>
       <c r="M14" s="1">
-        <v>943.967000</v>
+        <v>943.96699999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-111.997000</v>
+        <v>-111.997</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>36939.766350</v>
+        <v>36939.766349999998</v>
       </c>
       <c r="Q14" s="1">
         <v>10.261046</v>
       </c>
       <c r="R14" s="1">
-        <v>950.983000</v>
+        <v>950.98299999999995</v>
       </c>
       <c r="S14" s="1">
-        <v>-99.238100</v>
+        <v>-99.238100000000003</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>36950.270128</v>
+        <v>36950.270127999996</v>
       </c>
       <c r="V14" s="1">
         <v>10.263964</v>
       </c>
       <c r="W14" s="1">
-        <v>958.447000</v>
+        <v>958.447</v>
       </c>
       <c r="X14" s="1">
-        <v>-87.706500</v>
+        <v>-87.706500000000005</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>36960.846323</v>
+        <v>36960.846322999998</v>
       </c>
       <c r="AA14" s="1">
         <v>10.266902</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.983000</v>
+        <v>966.98299999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-79.791300</v>
+        <v>-79.791300000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>36971.337251</v>
+        <v>36971.337250999997</v>
       </c>
       <c r="AF14" s="1">
         <v>10.269816</v>
       </c>
       <c r="AG14" s="1">
-        <v>972.555000</v>
+        <v>972.55499999999995</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.765300</v>
+        <v>-79.765299999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>36981.909463</v>
+        <v>36981.909463000004</v>
       </c>
       <c r="AK14" s="1">
         <v>10.272753</v>
       </c>
       <c r="AL14" s="1">
-        <v>980.964000</v>
+        <v>980.96400000000006</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.711400</v>
+        <v>-87.711399999999998</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>36992.360663</v>
+        <v>36992.360662999999</v>
       </c>
       <c r="AP14" s="1">
         <v>10.275656</v>
       </c>
       <c r="AQ14" s="1">
-        <v>990.306000</v>
+        <v>990.30600000000004</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.713000</v>
+        <v>-102.71299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>37003.080698</v>
+        <v>37003.080697999998</v>
       </c>
       <c r="AU14" s="1">
         <v>10.278634</v>
       </c>
       <c r="AV14" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.301000</v>
+        <v>-124.301</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>37013.808172</v>
+        <v>37013.808171999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>10.281613</v>
       </c>
       <c r="BA14" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.140000</v>
+        <v>-143.13999999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>37024.780144</v>
+        <v>37024.780143999997</v>
       </c>
       <c r="BE14" s="1">
         <v>10.284661</v>
       </c>
       <c r="BF14" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG14" s="1">
-        <v>-228.556000</v>
+        <v>-228.55600000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>37036.047290</v>
+        <v>37036.047290000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>10.287791</v>
       </c>
       <c r="BK14" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-366.200000</v>
+        <v>-366.2</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>37047.217200</v>
+        <v>37047.217199999999</v>
       </c>
       <c r="BO14" s="1">
         <v>10.290894</v>
       </c>
       <c r="BP14" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-579.720000</v>
+        <v>-579.72</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>37057.716484</v>
+        <v>37057.716483999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>10.293810</v>
+        <v>10.293810000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1414.200000</v>
+        <v>1414.2</v>
       </c>
       <c r="BV14" s="1">
-        <v>-808.592000</v>
+        <v>-808.59199999999998</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>37068.505491</v>
+        <v>37068.505491000004</v>
       </c>
       <c r="BY14" s="1">
-        <v>10.296807</v>
+        <v>10.296806999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1577.440000</v>
+        <v>1577.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1047.710000</v>
+        <v>-1047.71</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>37080.664388</v>
+        <v>37080.664387999997</v>
       </c>
       <c r="CD14" s="1">
-        <v>10.300185</v>
+        <v>10.300185000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1991.630000</v>
+        <v>1991.63</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1608.800000</v>
+        <v>-1608.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>36908.434071</v>
+        <v>36908.434071000003</v>
       </c>
       <c r="B15" s="1">
         <v>10.252343</v>
       </c>
       <c r="C15" s="1">
-        <v>909.233000</v>
+        <v>909.23299999999995</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.887000</v>
+        <v>-175.887</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>36918.804922</v>
+        <v>36918.804922000003</v>
       </c>
       <c r="G15" s="1">
         <v>10.255224</v>
       </c>
       <c r="H15" s="1">
-        <v>922.957000</v>
+        <v>922.95699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.873000</v>
+        <v>-150.87299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>36929.939643</v>
+        <v>36929.939642999998</v>
       </c>
       <c r="L15" s="1">
         <v>10.258317</v>
       </c>
       <c r="M15" s="1">
-        <v>943.841000</v>
+        <v>943.84100000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-111.905000</v>
+        <v>-111.905</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>36940.147775</v>
+        <v>36940.147774999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>10.261152</v>
+        <v>10.261151999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>950.995000</v>
+        <v>950.995</v>
       </c>
       <c r="S15" s="1">
-        <v>-99.190100</v>
+        <v>-99.190100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>36950.652580</v>
+        <v>36950.652580000002</v>
       </c>
       <c r="V15" s="1">
-        <v>10.264070</v>
+        <v>10.26407</v>
       </c>
       <c r="W15" s="1">
-        <v>958.497000</v>
+        <v>958.49699999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-87.752700</v>
+        <v>-87.752700000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>36961.195011</v>
+        <v>36961.195011000003</v>
       </c>
       <c r="AA15" s="1">
         <v>10.266999</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.982000</v>
+        <v>966.98199999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-79.781700</v>
+        <v>-79.781700000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>36971.686921</v>
       </c>
       <c r="AF15" s="1">
-        <v>10.269913</v>
+        <v>10.269913000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>972.539000</v>
+        <v>972.53899999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.736900</v>
+        <v>-79.736900000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>36982.258615</v>
+        <v>36982.258614999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>10.272850</v>
+        <v>10.27285</v>
       </c>
       <c r="AL15" s="1">
-        <v>980.953000</v>
+        <v>980.95299999999997</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.714400</v>
+        <v>-87.714399999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>36992.784217</v>
       </c>
       <c r="AP15" s="1">
-        <v>10.275773</v>
+        <v>10.275772999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>990.317000</v>
+        <v>990.31700000000001</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.699000</v>
+        <v>-102.699</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>37003.503755</v>
+        <v>37003.503754999998</v>
       </c>
       <c r="AU15" s="1">
         <v>10.278751</v>
       </c>
       <c r="AV15" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>37014.110240</v>
+        <v>37014.110240000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>10.281697</v>
+        <v>10.281696999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.143000</v>
+        <v>-143.143</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>37025.148173</v>
+        <v>37025.148173000001</v>
       </c>
       <c r="BE15" s="1">
         <v>10.284763</v>
       </c>
       <c r="BF15" s="1">
-        <v>1056.260000</v>
+        <v>1056.26</v>
       </c>
       <c r="BG15" s="1">
-        <v>-228.563000</v>
+        <v>-228.56299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>37036.423232</v>
+        <v>37036.423232000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>10.287895</v>
+        <v>10.287895000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1135.300000</v>
+        <v>1135.3</v>
       </c>
       <c r="BL15" s="1">
-        <v>-366.184000</v>
+        <v>-366.18400000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>37047.613968</v>
+        <v>37047.613967999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>10.291004</v>
+        <v>10.291003999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1266.620000</v>
+        <v>1266.6199999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-579.705000</v>
+        <v>-579.70500000000004</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>37058.127699</v>
+        <v>37058.127698999997</v>
       </c>
       <c r="BT15" s="1">
-        <v>10.293924</v>
+        <v>10.293924000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1414.190000</v>
+        <v>1414.19</v>
       </c>
       <c r="BV15" s="1">
-        <v>-808.534000</v>
+        <v>-808.53399999999999</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>37068.953878</v>
@@ -4047,165 +4463,165 @@
         <v>10.296932</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1577.570000</v>
+        <v>1577.57</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1047.700000</v>
+        <v>-1047.7</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>37081.196132</v>
+        <v>37081.196131999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>10.300332</v>
+        <v>10.300331999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1991.520000</v>
+        <v>1991.52</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1607.310000</v>
+        <v>-1607.31</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>36909.084855</v>
+        <v>36909.084855000001</v>
       </c>
       <c r="B16" s="1">
-        <v>10.252524</v>
+        <v>10.252523999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>909.218000</v>
+        <v>909.21799999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-175.837000</v>
+        <v>-175.83699999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>36919.466089</v>
+        <v>36919.466089000001</v>
       </c>
       <c r="G16" s="1">
         <v>10.255407</v>
       </c>
       <c r="H16" s="1">
-        <v>923.223000</v>
+        <v>923.22299999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-151.218000</v>
+        <v>-151.21799999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>36930.319547</v>
+        <v>36930.319546999999</v>
       </c>
       <c r="L16" s="1">
-        <v>10.258422</v>
+        <v>10.258421999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>944.071000</v>
+        <v>944.07100000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-111.944000</v>
+        <v>-111.944</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>36940.505917</v>
+        <v>36940.505917000002</v>
       </c>
       <c r="Q16" s="1">
-        <v>10.261252</v>
+        <v>10.261252000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>951.007000</v>
+        <v>951.00699999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-99.200500</v>
+        <v>-99.200500000000005</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>36950.998289</v>
+        <v>36950.998289000003</v>
       </c>
       <c r="V16" s="1">
-        <v>10.264166</v>
+        <v>10.264165999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>958.414000</v>
+        <v>958.41399999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-87.786300</v>
+        <v>-87.786299999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>36961.543697</v>
+        <v>36961.543697000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>10.267095</v>
+        <v>10.267094999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.924000</v>
+        <v>966.92399999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-79.823500</v>
+        <v>-79.823499999999996</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>36972.036067</v>
+        <v>36972.036067000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>10.270010</v>
+        <v>10.270009999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>972.578000</v>
+        <v>972.57799999999997</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.737700</v>
+        <v>-79.737700000000004</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>36982.673798</v>
+        <v>36982.673798000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>10.272965</v>
+        <v>10.272964999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>980.934000</v>
+        <v>980.93399999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.698800</v>
+        <v>-87.698800000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>36993.081826</v>
+        <v>36993.081826000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>10.275856</v>
+        <v>10.275855999999999</v>
       </c>
       <c r="AQ16" s="1">
-        <v>990.311000</v>
+        <v>990.31100000000004</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.698000</v>
+        <v>-102.69799999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>37003.809813</v>
@@ -4214,121 +4630,121 @@
         <v>10.278836</v>
       </c>
       <c r="AV16" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>37014.469308</v>
       </c>
       <c r="AZ16" s="1">
-        <v>10.281797</v>
+        <v>10.281796999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1011.290000</v>
+        <v>1011.29</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.136000</v>
+        <v>-143.136</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>37025.507773</v>
+        <v>37025.507772999998</v>
       </c>
       <c r="BE16" s="1">
         <v>10.284863</v>
       </c>
       <c r="BF16" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG16" s="1">
-        <v>-228.539000</v>
+        <v>-228.53899999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>37036.798703</v>
       </c>
       <c r="BJ16" s="1">
-        <v>10.288000</v>
+        <v>10.288</v>
       </c>
       <c r="BK16" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL16" s="1">
-        <v>-366.191000</v>
+        <v>-366.19099999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>37048.038577</v>
+        <v>37048.038576999999</v>
       </c>
       <c r="BO16" s="1">
         <v>10.291122</v>
       </c>
       <c r="BP16" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-579.727000</v>
+        <v>-579.72699999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>37058.555217</v>
+        <v>37058.555217000001</v>
       </c>
       <c r="BT16" s="1">
         <v>10.294043</v>
       </c>
       <c r="BU16" s="1">
-        <v>1414.190000</v>
+        <v>1414.19</v>
       </c>
       <c r="BV16" s="1">
-        <v>-808.587000</v>
+        <v>-808.58699999999999</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>37069.375443</v>
+        <v>37069.375442999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>10.297049</v>
+        <v>10.297048999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1577.540000</v>
+        <v>1577.54</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1047.790000</v>
+        <v>-1047.79</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>37081.714914</v>
+        <v>37081.714913999996</v>
       </c>
       <c r="CD16" s="1">
         <v>10.300476</v>
       </c>
       <c r="CE16" s="1">
-        <v>1989.870000</v>
+        <v>1989.87</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1607.310000</v>
+        <v>-1607.31</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>36909.459808</v>
       </c>
@@ -4336,256 +4752,256 @@
         <v>10.252628</v>
       </c>
       <c r="C17" s="1">
-        <v>909.471000</v>
+        <v>909.471</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.860000</v>
+        <v>-175.86</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>36919.842553</v>
+        <v>36919.842553000002</v>
       </c>
       <c r="G17" s="1">
         <v>10.255512</v>
       </c>
       <c r="H17" s="1">
-        <v>923.274000</v>
+        <v>923.274</v>
       </c>
       <c r="I17" s="1">
-        <v>-151.089000</v>
+        <v>-151.089</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>36930.664763</v>
+        <v>36930.664763000001</v>
       </c>
       <c r="L17" s="1">
         <v>10.258518</v>
       </c>
       <c r="M17" s="1">
-        <v>944.095000</v>
+        <v>944.09500000000003</v>
       </c>
       <c r="N17" s="1">
-        <v>-111.907000</v>
+        <v>-111.907</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>36940.855566</v>
+        <v>36940.855565999998</v>
       </c>
       <c r="Q17" s="1">
-        <v>10.261349</v>
+        <v>10.261348999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>951.056000</v>
+        <v>951.05600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-99.250000</v>
+        <v>-99.25</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>36951.345952</v>
+        <v>36951.345952000003</v>
       </c>
       <c r="V17" s="1">
         <v>10.264263</v>
       </c>
       <c r="W17" s="1">
-        <v>958.499000</v>
+        <v>958.49900000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-87.738900</v>
+        <v>-87.738900000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>36961.962852</v>
+        <v>36961.962851999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>10.267212</v>
+        <v>10.267212000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.901000</v>
+        <v>966.90099999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-79.755500</v>
+        <v>-79.755499999999998</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>36972.456675</v>
+        <v>36972.456675000001</v>
       </c>
       <c r="AF17" s="1">
         <v>10.270127</v>
       </c>
       <c r="AG17" s="1">
-        <v>972.557000</v>
+        <v>972.55700000000002</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.759300</v>
+        <v>-79.759299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>36982.966405</v>
+        <v>36982.966404999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>10.273046</v>
+        <v>10.273046000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>980.965000</v>
+        <v>980.96500000000003</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.710400</v>
+        <v>-87.710400000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>36993.440919</v>
+        <v>36993.440919000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>10.275956</v>
+        <v>10.275956000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>990.301000</v>
+        <v>990.30100000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.727000</v>
+        <v>-102.727</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>37004.173887</v>
+        <v>37004.173886999997</v>
       </c>
       <c r="AU17" s="1">
-        <v>10.278937</v>
+        <v>10.278937000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.344000</v>
+        <v>-124.34399999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>37014.832380</v>
+        <v>37014.83238</v>
       </c>
       <c r="AZ17" s="1">
         <v>10.281898</v>
       </c>
       <c r="BA17" s="1">
-        <v>1011.310000</v>
+        <v>1011.31</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.125000</v>
+        <v>-143.125</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>37026.233420</v>
+        <v>37026.233419999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>10.285065</v>
+        <v>10.285064999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG17" s="1">
-        <v>-228.529000</v>
+        <v>-228.529</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>37037.570477</v>
+        <v>37037.570477000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>10.288214</v>
       </c>
       <c r="BK17" s="1">
-        <v>1135.310000</v>
+        <v>1135.31</v>
       </c>
       <c r="BL17" s="1">
-        <v>-366.196000</v>
+        <v>-366.19600000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>37048.435343</v>
+        <v>37048.435342999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>10.291232</v>
+        <v>10.291232000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-579.703000</v>
+        <v>-579.70299999999997</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>37058.983272</v>
+        <v>37058.983271999998</v>
       </c>
       <c r="BT17" s="1">
         <v>10.294162</v>
       </c>
       <c r="BU17" s="1">
-        <v>1414.160000</v>
+        <v>1414.16</v>
       </c>
       <c r="BV17" s="1">
-        <v>-808.557000</v>
+        <v>-808.55700000000002</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>37069.799524</v>
+        <v>37069.799524000002</v>
       </c>
       <c r="BY17" s="1">
         <v>10.297167</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1577.590000</v>
+        <v>1577.59</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1047.780000</v>
+        <v>-1047.78</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>37082.538286</v>
+        <v>37082.538286000003</v>
       </c>
       <c r="CD17" s="1">
-        <v>10.300705</v>
+        <v>10.300705000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1990.470000</v>
+        <v>1990.47</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1608.600000</v>
+        <v>-1608.6</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>36909.803064</v>
       </c>
@@ -4593,28 +5009,28 @@
         <v>10.252723</v>
       </c>
       <c r="C18" s="1">
-        <v>909.144000</v>
+        <v>909.14400000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.808000</v>
+        <v>-175.80799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>36920.179832</v>
+        <v>36920.179832000002</v>
       </c>
       <c r="G18" s="1">
         <v>10.255606</v>
       </c>
       <c r="H18" s="1">
-        <v>923.264000</v>
+        <v>923.26400000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-151.030000</v>
+        <v>-151.03</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>36931.011993</v>
@@ -4623,226 +5039,226 @@
         <v>10.258614</v>
       </c>
       <c r="M18" s="1">
-        <v>943.867000</v>
+        <v>943.86699999999996</v>
       </c>
       <c r="N18" s="1">
-        <v>-111.895000</v>
+        <v>-111.895</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>36941.272700</v>
+        <v>36941.272700000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>10.261465</v>
+        <v>10.261464999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>950.999000</v>
+        <v>950.99900000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-99.263600</v>
+        <v>-99.263599999999997</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>36951.772046</v>
+        <v>36951.772045999998</v>
       </c>
       <c r="V18" s="1">
         <v>10.264381</v>
       </c>
       <c r="W18" s="1">
-        <v>958.474000</v>
+        <v>958.47400000000005</v>
       </c>
       <c r="X18" s="1">
-        <v>-87.732600</v>
+        <v>-87.732600000000005</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>36962.254497</v>
+        <v>36962.254497000002</v>
       </c>
       <c r="AA18" s="1">
         <v>10.267293</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.973000</v>
+        <v>966.97299999999996</v>
       </c>
       <c r="AC18" s="1">
-        <v>-79.815300</v>
+        <v>-79.815299999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>36973.079155</v>
+        <v>36973.079154999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>10.270300</v>
+        <v>10.270300000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>972.557000</v>
+        <v>972.55700000000002</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.707300</v>
+        <v>-79.707300000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>36983.315620</v>
+        <v>36983.315620000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>10.273143</v>
+        <v>10.273142999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>980.964000</v>
+        <v>980.96400000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.718500</v>
+        <v>-87.718500000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>36993.802007</v>
+        <v>36993.802006999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>10.276056</v>
+        <v>10.276056000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>990.322000</v>
+        <v>990.322</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.715000</v>
+        <v>-102.715</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>37004.536921</v>
+        <v>37004.536920999999</v>
       </c>
       <c r="AU18" s="1">
         <v>10.279038</v>
       </c>
       <c r="AV18" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.328000</v>
+        <v>-124.328</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>37015.544139</v>
+        <v>37015.544138999998</v>
       </c>
       <c r="AZ18" s="1">
-        <v>10.282096</v>
+        <v>10.282095999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1011.320000</v>
+        <v>1011.32</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.143000</v>
+        <v>-143.143</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>37026.616670</v>
+        <v>37026.616670000003</v>
       </c>
       <c r="BE18" s="1">
         <v>10.285171</v>
       </c>
       <c r="BF18" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG18" s="1">
-        <v>-228.542000</v>
+        <v>-228.542</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>37037.945485</v>
+        <v>37037.945484999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>10.288318</v>
       </c>
       <c r="BK18" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>37048.856447</v>
+        <v>37048.856446999998</v>
       </c>
       <c r="BO18" s="1">
         <v>10.291349</v>
       </c>
       <c r="BP18" s="1">
-        <v>1266.580000</v>
+        <v>1266.58</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-579.668000</v>
+        <v>-579.66800000000001</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>37059.707424</v>
       </c>
       <c r="BT18" s="1">
-        <v>10.294363</v>
+        <v>10.294363000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV18" s="1">
-        <v>-808.609000</v>
+        <v>-808.60900000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>37070.553938</v>
+        <v>37070.553937999997</v>
       </c>
       <c r="BY18" s="1">
         <v>10.297376</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1577.490000</v>
+        <v>1577.49</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1047.740000</v>
+        <v>-1047.74</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>37082.784786</v>
+        <v>37082.784785999997</v>
       </c>
       <c r="CD18" s="1">
-        <v>10.300774</v>
+        <v>10.300774000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1991.560000</v>
+        <v>1991.56</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1607.520000</v>
+        <v>-1607.52</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>36910.144774</v>
       </c>
@@ -4850,118 +5266,118 @@
         <v>10.252818</v>
       </c>
       <c r="C19" s="1">
-        <v>909.324000</v>
+        <v>909.32399999999996</v>
       </c>
       <c r="D19" s="1">
-        <v>-175.969000</v>
+        <v>-175.96899999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>36920.638136</v>
+        <v>36920.638136000001</v>
       </c>
       <c r="G19" s="1">
-        <v>10.255733</v>
+        <v>10.255732999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>923.369000</v>
+        <v>923.36900000000003</v>
       </c>
       <c r="I19" s="1">
-        <v>-151.260000</v>
+        <v>-151.26</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>36931.429595</v>
+        <v>36931.429595000001</v>
       </c>
       <c r="L19" s="1">
-        <v>10.258730</v>
+        <v>10.25873</v>
       </c>
       <c r="M19" s="1">
-        <v>943.927000</v>
+        <v>943.92700000000002</v>
       </c>
       <c r="N19" s="1">
-        <v>-111.987000</v>
+        <v>-111.98699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>36941.566331</v>
+        <v>36941.566331000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>10.261546</v>
+        <v>10.261545999999999</v>
       </c>
       <c r="R19" s="1">
-        <v>950.995000</v>
+        <v>950.995</v>
       </c>
       <c r="S19" s="1">
-        <v>-99.298500</v>
+        <v>-99.298500000000004</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>36952.052254</v>
+        <v>36952.052254000002</v>
       </c>
       <c r="V19" s="1">
         <v>10.264459</v>
       </c>
       <c r="W19" s="1">
-        <v>958.433000</v>
+        <v>958.43299999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-87.777400</v>
+        <v>-87.7774</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>36962.601665</v>
+        <v>36962.601665000002</v>
       </c>
       <c r="AA19" s="1">
         <v>10.267389</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.979000</v>
+        <v>966.97900000000004</v>
       </c>
       <c r="AC19" s="1">
-        <v>-79.776100</v>
+        <v>-79.7761</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>36973.422386</v>
+        <v>36973.422385999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>10.270395</v>
+        <v>10.270395000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>972.534000</v>
+        <v>972.53399999999999</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.757900</v>
+        <v>-79.757900000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>36983.661300</v>
+        <v>36983.6613</v>
       </c>
       <c r="AK19" s="1">
         <v>10.273239</v>
       </c>
       <c r="AL19" s="1">
-        <v>980.956000</v>
+        <v>980.95600000000002</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.696900</v>
+        <v>-87.696899999999999</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>36994.529638</v>
@@ -4970,497 +5386,497 @@
         <v>10.276258</v>
       </c>
       <c r="AQ19" s="1">
-        <v>990.319000</v>
+        <v>990.31899999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.685000</v>
+        <v>-102.685</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>37005.270535</v>
+        <v>37005.270535000003</v>
       </c>
       <c r="AU19" s="1">
         <v>10.279242</v>
       </c>
       <c r="AV19" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.305000</v>
+        <v>-124.30500000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>37015.903738</v>
+        <v>37015.903738000001</v>
       </c>
       <c r="AZ19" s="1">
         <v>10.282195</v>
       </c>
       <c r="BA19" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.152000</v>
+        <v>-143.15199999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>37026.979899</v>
+        <v>37026.979898999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>10.285272</v>
+        <v>10.285272000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG19" s="1">
-        <v>-228.517000</v>
+        <v>-228.517</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>37038.320923</v>
+        <v>37038.320922999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>10.288422</v>
+        <v>10.288422000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL19" s="1">
-        <v>-366.180000</v>
+        <v>-366.18</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>37049.570222</v>
+        <v>37049.570222000002</v>
       </c>
       <c r="BO19" s="1">
         <v>10.291547</v>
       </c>
       <c r="BP19" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-579.698000</v>
+        <v>-579.69799999999998</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>37059.827007</v>
       </c>
       <c r="BT19" s="1">
-        <v>10.294396</v>
+        <v>10.294396000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1414.160000</v>
+        <v>1414.16</v>
       </c>
       <c r="BV19" s="1">
-        <v>-808.565000</v>
+        <v>-808.56500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>37070.677969</v>
+        <v>37070.677968999997</v>
       </c>
       <c r="BY19" s="1">
         <v>10.297411</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1577.530000</v>
+        <v>1577.53</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1047.660000</v>
+        <v>-1047.6600000000001</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>37083.316001</v>
+        <v>37083.316000999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>10.300921</v>
+        <v>10.300921000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>1989.490000</v>
+        <v>1989.49</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1607.740000</v>
+        <v>-1607.74</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>36910.565878</v>
+        <v>36910.565878000001</v>
       </c>
       <c r="B20" s="1">
-        <v>10.252935</v>
+        <v>10.252935000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>909.434000</v>
+        <v>909.43399999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-176.013000</v>
+        <v>-176.01300000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>36921.257670</v>
+        <v>36921.257669999999</v>
       </c>
       <c r="G20" s="1">
         <v>10.255905</v>
       </c>
       <c r="H20" s="1">
-        <v>923.301000</v>
+        <v>923.30100000000004</v>
       </c>
       <c r="I20" s="1">
-        <v>-151.030000</v>
+        <v>-151.03</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>36931.725209</v>
+        <v>36931.725208999997</v>
       </c>
       <c r="L20" s="1">
         <v>10.258813</v>
       </c>
       <c r="M20" s="1">
-        <v>944.060000</v>
+        <v>944.06</v>
       </c>
       <c r="N20" s="1">
-        <v>-111.947000</v>
+        <v>-111.947</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>36941.914555</v>
+        <v>36941.914555000003</v>
       </c>
       <c r="Q20" s="1">
-        <v>10.261643</v>
+        <v>10.261642999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>950.950000</v>
+        <v>950.95</v>
       </c>
       <c r="S20" s="1">
-        <v>-99.268300</v>
+        <v>-99.268299999999996</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>36952.394990</v>
+        <v>36952.394990000001</v>
       </c>
       <c r="V20" s="1">
         <v>10.264554</v>
       </c>
       <c r="W20" s="1">
-        <v>958.412000</v>
+        <v>958.41200000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-87.811800</v>
+        <v>-87.811800000000005</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>36962.951343</v>
+        <v>36962.951343000001</v>
       </c>
       <c r="AA20" s="1">
         <v>10.267486</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.949000</v>
+        <v>966.94899999999996</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.740700</v>
+        <v>-79.740700000000004</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>36974.112322</v>
+        <v>36974.112322000001</v>
       </c>
       <c r="AF20" s="1">
-        <v>10.270587</v>
+        <v>10.270587000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>972.539000</v>
+        <v>972.53899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.754500</v>
+        <v>-79.754499999999993</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>36984.361156</v>
+        <v>36984.361155999999</v>
       </c>
       <c r="AK20" s="1">
         <v>10.273434</v>
       </c>
       <c r="AL20" s="1">
-        <v>980.962000</v>
+        <v>980.96199999999999</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.693800</v>
+        <v>-87.693799999999996</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>36994.906629</v>
+        <v>36994.906628999997</v>
       </c>
       <c r="AP20" s="1">
         <v>10.276363</v>
       </c>
       <c r="AQ20" s="1">
-        <v>990.308000</v>
+        <v>990.30799999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.686000</v>
+        <v>-102.68600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>37005.663831</v>
+        <v>37005.663830999998</v>
       </c>
       <c r="AU20" s="1">
         <v>10.279351</v>
       </c>
       <c r="AV20" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.308000</v>
+        <v>-124.30800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>37016.264825</v>
+        <v>37016.264824999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>10.282296</v>
+        <v>10.282296000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.121000</v>
+        <v>-143.12100000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>37027.652970</v>
+        <v>37027.652970000003</v>
       </c>
       <c r="BE20" s="1">
-        <v>10.285459</v>
+        <v>10.285458999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG20" s="1">
-        <v>-228.544000</v>
+        <v>-228.54400000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>37039.000443</v>
+        <v>37039.000442999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>10.288611</v>
       </c>
       <c r="BK20" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL20" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>37049.677821</v>
+        <v>37049.677820999997</v>
       </c>
       <c r="BO20" s="1">
         <v>10.291577</v>
       </c>
       <c r="BP20" s="1">
-        <v>1266.640000</v>
+        <v>1266.6400000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-579.695000</v>
+        <v>-579.69500000000005</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>37060.265950</v>
+        <v>37060.265950000001</v>
       </c>
       <c r="BT20" s="1">
         <v>10.294518</v>
       </c>
       <c r="BU20" s="1">
-        <v>1414.150000</v>
+        <v>1414.15</v>
       </c>
       <c r="BV20" s="1">
-        <v>-808.624000</v>
+        <v>-808.62400000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>37071.116432</v>
+        <v>37071.116432000003</v>
       </c>
       <c r="BY20" s="1">
         <v>10.297532</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1577.550000</v>
+        <v>1577.55</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1047.840000</v>
+        <v>-1047.8399999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>37083.855152</v>
+        <v>37083.855151999996</v>
       </c>
       <c r="CD20" s="1">
         <v>10.301071</v>
       </c>
       <c r="CE20" s="1">
-        <v>1991.290000</v>
+        <v>1991.29</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1608.940000</v>
+        <v>-1608.94</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>36910.843517</v>
+        <v>36910.843517000001</v>
       </c>
       <c r="B21" s="1">
         <v>10.253012</v>
       </c>
       <c r="C21" s="1">
-        <v>909.178000</v>
+        <v>909.178</v>
       </c>
       <c r="D21" s="1">
-        <v>-175.797000</v>
+        <v>-175.797</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>36921.601891</v>
+        <v>36921.601890999998</v>
       </c>
       <c r="G21" s="1">
-        <v>10.256001</v>
+        <v>10.256000999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>923.376000</v>
+        <v>923.37599999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-150.903000</v>
+        <v>-150.90299999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>36932.069928</v>
+        <v>36932.069927999997</v>
       </c>
       <c r="L21" s="1">
         <v>10.258908</v>
       </c>
       <c r="M21" s="1">
-        <v>944.009000</v>
+        <v>944.00900000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-112.069000</v>
+        <v>-112.069</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>36942.263212</v>
+        <v>36942.263211999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>10.261740</v>
+        <v>10.26174</v>
       </c>
       <c r="R21" s="1">
-        <v>951.010000</v>
+        <v>951.01</v>
       </c>
       <c r="S21" s="1">
-        <v>-99.215700</v>
+        <v>-99.215699999999998</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>36952.737229</v>
+        <v>36952.737228999998</v>
       </c>
       <c r="V21" s="1">
         <v>10.264649</v>
       </c>
       <c r="W21" s="1">
-        <v>958.425000</v>
+        <v>958.42499999999995</v>
       </c>
       <c r="X21" s="1">
-        <v>-87.806500</v>
+        <v>-87.8065</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>36963.647727</v>
+        <v>36963.647727000003</v>
       </c>
       <c r="AA21" s="1">
-        <v>10.267680</v>
+        <v>10.26768</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.967000</v>
+        <v>966.96699999999998</v>
       </c>
       <c r="AC21" s="1">
-        <v>-79.728600</v>
+        <v>-79.7286</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>36974.456544</v>
+        <v>36974.456544000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>10.270682</v>
+        <v>10.270682000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>972.556000</v>
+        <v>972.55600000000004</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.738900</v>
+        <v>-79.738900000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>36984.709874</v>
@@ -5469,13 +5885,13 @@
         <v>10.273531</v>
       </c>
       <c r="AL21" s="1">
-        <v>980.971000</v>
+        <v>980.971</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.694100</v>
+        <v>-87.694100000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>36995.268182</v>
@@ -5484,407 +5900,407 @@
         <v>10.276463</v>
       </c>
       <c r="AQ21" s="1">
-        <v>990.321000</v>
+        <v>990.32100000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.695000</v>
+        <v>-102.69499999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>37006.024424</v>
+        <v>37006.024424000003</v>
       </c>
       <c r="AU21" s="1">
         <v>10.279451</v>
       </c>
       <c r="AV21" s="1">
-        <v>1001.710000</v>
+        <v>1001.71</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.325000</v>
+        <v>-124.325</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>37016.937896</v>
+        <v>37016.937896000003</v>
       </c>
       <c r="AZ21" s="1">
-        <v>10.282483</v>
+        <v>10.282482999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1011.290000</v>
+        <v>1011.29</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.126000</v>
+        <v>-143.126</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>37028.097883</v>
+        <v>37028.097883000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>10.285583</v>
+        <v>10.285583000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG21" s="1">
-        <v>-228.565000</v>
+        <v>-228.565</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>37039.108571</v>
+        <v>37039.108570999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>10.288641</v>
       </c>
       <c r="BK21" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-366.190000</v>
+        <v>-366.19</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>37050.098924</v>
+        <v>37050.098923999998</v>
       </c>
       <c r="BO21" s="1">
         <v>10.291694</v>
       </c>
       <c r="BP21" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-579.662000</v>
+        <v>-579.66200000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>37060.689999</v>
+        <v>37060.689999000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>10.294636</v>
+        <v>10.294636000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1414.200000</v>
+        <v>1414.2</v>
       </c>
       <c r="BV21" s="1">
-        <v>-808.576000</v>
+        <v>-808.57600000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>37071.573750</v>
+        <v>37071.573750000003</v>
       </c>
       <c r="BY21" s="1">
-        <v>10.297659</v>
+        <v>10.297658999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1577.550000</v>
+        <v>1577.55</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1047.680000</v>
+        <v>-1047.68</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>37084.397279</v>
+        <v>37084.397278999997</v>
       </c>
       <c r="CD21" s="1">
         <v>10.301221</v>
       </c>
       <c r="CE21" s="1">
-        <v>1991.140000</v>
+        <v>1991.14</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1606.650000</v>
+        <v>-1606.65</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>36911.184884</v>
+        <v>36911.184884000002</v>
       </c>
       <c r="B22" s="1">
         <v>10.253107</v>
       </c>
       <c r="C22" s="1">
-        <v>909.393000</v>
+        <v>909.39300000000003</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.964000</v>
+        <v>-175.964</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>36921.949093</v>
+        <v>36921.949093000003</v>
       </c>
       <c r="G22" s="1">
         <v>10.256097</v>
       </c>
       <c r="H22" s="1">
-        <v>922.802000</v>
+        <v>922.80200000000002</v>
       </c>
       <c r="I22" s="1">
-        <v>-150.652000</v>
+        <v>-150.65199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>36932.415144</v>
+        <v>36932.415143999999</v>
       </c>
       <c r="L22" s="1">
-        <v>10.259004</v>
+        <v>10.259003999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>944.018000</v>
+        <v>944.01800000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-111.840000</v>
+        <v>-111.84</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>36942.960090</v>
+        <v>36942.96009</v>
       </c>
       <c r="Q22" s="1">
-        <v>10.261933</v>
+        <v>10.261933000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>951.029000</v>
+        <v>951.029</v>
       </c>
       <c r="S22" s="1">
-        <v>-99.273600</v>
+        <v>-99.273600000000002</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>36953.424717</v>
+        <v>36953.424717000002</v>
       </c>
       <c r="V22" s="1">
-        <v>10.264840</v>
+        <v>10.26484</v>
       </c>
       <c r="W22" s="1">
-        <v>958.470000</v>
+        <v>958.47</v>
       </c>
       <c r="X22" s="1">
-        <v>-87.750500</v>
+        <v>-87.750500000000002</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>36963.994431</v>
+        <v>36963.994430999999</v>
       </c>
       <c r="AA22" s="1">
         <v>10.267776</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.973000</v>
+        <v>966.97299999999996</v>
       </c>
       <c r="AC22" s="1">
-        <v>-79.710800</v>
+        <v>-79.710800000000006</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>36974.803745</v>
+        <v>36974.803744999997</v>
       </c>
       <c r="AF22" s="1">
-        <v>10.270779</v>
+        <v>10.270778999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>972.531000</v>
+        <v>972.53099999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.761600</v>
+        <v>-79.761600000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>36985.055554</v>
+        <v>36985.055553999999</v>
       </c>
       <c r="AK22" s="1">
-        <v>10.273627</v>
+        <v>10.273626999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>980.942000</v>
+        <v>980.94200000000001</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.722600</v>
+        <v>-87.7226</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>36995.928388</v>
       </c>
       <c r="AP22" s="1">
-        <v>10.276647</v>
+        <v>10.276647000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>990.308000</v>
+        <v>990.30799999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.710000</v>
+        <v>-102.71</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>37006.701737</v>
+        <v>37006.701737000003</v>
       </c>
       <c r="AU22" s="1">
         <v>10.279639</v>
       </c>
       <c r="AV22" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.312000</v>
+        <v>-124.312</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>37017.343656</v>
+        <v>37017.343655999997</v>
       </c>
       <c r="AZ22" s="1">
-        <v>10.282595</v>
+        <v>10.282595000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1011.300000</v>
+        <v>1011.3</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.137000</v>
+        <v>-143.137</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>37028.458473</v>
+        <v>37028.458472999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>10.285683</v>
+        <v>10.285683000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1056.280000</v>
+        <v>1056.28</v>
       </c>
       <c r="BG22" s="1">
-        <v>-228.554000</v>
+        <v>-228.554</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>37039.470684</v>
       </c>
       <c r="BJ22" s="1">
-        <v>10.288742</v>
+        <v>10.288741999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL22" s="1">
-        <v>-366.204000</v>
+        <v>-366.20400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>37050.493281</v>
+        <v>37050.493281000003</v>
       </c>
       <c r="BO22" s="1">
-        <v>10.291804</v>
+        <v>10.291804000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-579.665000</v>
+        <v>-579.66499999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>37061.107170</v>
+        <v>37061.107170000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>10.294752</v>
+        <v>10.294752000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1414.110000</v>
+        <v>1414.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-808.582000</v>
+        <v>-808.58199999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>37072.020642</v>
+        <v>37072.020642000003</v>
       </c>
       <c r="BY22" s="1">
         <v>10.297784</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1577.410000</v>
+        <v>1577.41</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1047.660000</v>
+        <v>-1047.6600000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>37084.935934</v>
+        <v>37084.935934000001</v>
       </c>
       <c r="CD22" s="1">
         <v>10.301371</v>
       </c>
       <c r="CE22" s="1">
-        <v>1989.850000</v>
+        <v>1989.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1608.910000</v>
+        <v>-1608.91</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>36911.529603</v>
+        <v>36911.529603000003</v>
       </c>
       <c r="B23" s="1">
-        <v>10.253203</v>
+        <v>10.253202999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>909.149000</v>
+        <v>909.149</v>
       </c>
       <c r="D23" s="1">
-        <v>-175.868000</v>
+        <v>-175.86799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>36922.638004</v>
@@ -5893,103 +6309,103 @@
         <v>10.256288</v>
       </c>
       <c r="H23" s="1">
-        <v>923.190000</v>
+        <v>923.19</v>
       </c>
       <c r="I23" s="1">
-        <v>-151.041000</v>
+        <v>-151.041</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>36933.107064</v>
+        <v>36933.107064000003</v>
       </c>
       <c r="L23" s="1">
-        <v>10.259196</v>
+        <v>10.259195999999999</v>
       </c>
       <c r="M23" s="1">
-        <v>944.093000</v>
+        <v>944.09299999999996</v>
       </c>
       <c r="N23" s="1">
-        <v>-111.867000</v>
+        <v>-111.867</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>36943.310298</v>
+        <v>36943.310297999997</v>
       </c>
       <c r="Q23" s="1">
         <v>10.262031</v>
       </c>
       <c r="R23" s="1">
-        <v>951.083000</v>
+        <v>951.08299999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-99.324900</v>
+        <v>-99.3249</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>36953.770892</v>
       </c>
       <c r="V23" s="1">
-        <v>10.264936</v>
+        <v>10.264936000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>958.451000</v>
+        <v>958.45100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-87.867400</v>
+        <v>-87.867400000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>36964.344607</v>
+        <v>36964.344606999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>10.267874</v>
+        <v>10.267874000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.890000</v>
+        <v>966.89</v>
       </c>
       <c r="AC23" s="1">
-        <v>-79.813800</v>
+        <v>-79.813800000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>36975.465449</v>
+        <v>36975.465449000003</v>
       </c>
       <c r="AF23" s="1">
         <v>10.270963</v>
       </c>
       <c r="AG23" s="1">
-        <v>972.574000</v>
+        <v>972.57399999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.752300</v>
+        <v>-79.752300000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>36985.712257</v>
+        <v>36985.712256999999</v>
       </c>
       <c r="AK23" s="1">
         <v>10.273809</v>
       </c>
       <c r="AL23" s="1">
-        <v>980.962000</v>
+        <v>980.96199999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.704400</v>
+        <v>-87.704400000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>36996.344997</v>
@@ -5998,315 +6414,315 @@
         <v>10.276762</v>
       </c>
       <c r="AQ23" s="1">
-        <v>990.316000</v>
+        <v>990.31600000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.712000</v>
+        <v>-102.712</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>37007.128064</v>
+        <v>37007.128063999997</v>
       </c>
       <c r="AU23" s="1">
-        <v>10.279758</v>
+        <v>10.279757999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.299000</v>
+        <v>-124.29900000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>37017.718140</v>
+        <v>37017.718139999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>10.282699</v>
+        <v>10.282698999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1011.330000</v>
+        <v>1011.33</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.135000</v>
+        <v>-143.13499999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>37028.819561</v>
+        <v>37028.819560999997</v>
       </c>
       <c r="BE23" s="1">
         <v>10.285783</v>
       </c>
       <c r="BF23" s="1">
-        <v>1056.280000</v>
+        <v>1056.28</v>
       </c>
       <c r="BG23" s="1">
-        <v>-228.547000</v>
+        <v>-228.547</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>37039.846122</v>
+        <v>37039.846122000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>10.288846</v>
+        <v>10.288845999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL23" s="1">
-        <v>-366.169000</v>
+        <v>-366.16899999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>37050.914485</v>
+        <v>37050.914485000001</v>
       </c>
       <c r="BO23" s="1">
         <v>10.291921</v>
       </c>
       <c r="BP23" s="1">
-        <v>1266.580000</v>
+        <v>1266.58</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-579.715000</v>
+        <v>-579.71500000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>37061.534191</v>
+        <v>37061.534190999999</v>
       </c>
       <c r="BT23" s="1">
-        <v>10.294871</v>
+        <v>10.294871000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1414.170000</v>
+        <v>1414.17</v>
       </c>
       <c r="BV23" s="1">
-        <v>-808.536000</v>
+        <v>-808.53599999999994</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>37072.476430</v>
+        <v>37072.476430000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>10.297910</v>
+        <v>10.29791</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.430000</v>
+        <v>1577.43</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1047.780000</v>
+        <v>-1047.78</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>37085.476107</v>
+        <v>37085.476107000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>10.301521</v>
+        <v>10.301520999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1991.570000</v>
+        <v>1991.57</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1607.890000</v>
+        <v>-1607.89</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>36912.209619</v>
+        <v>36912.209619000001</v>
       </c>
       <c r="B24" s="1">
         <v>10.253392</v>
       </c>
       <c r="C24" s="1">
-        <v>909.228000</v>
+        <v>909.22799999999995</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.804000</v>
+        <v>-175.804</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>36922.982726</v>
+        <v>36922.982726000002</v>
       </c>
       <c r="G24" s="1">
-        <v>10.256384</v>
+        <v>10.256384000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>923.072000</v>
+        <v>923.072</v>
       </c>
       <c r="I24" s="1">
-        <v>-150.944000</v>
+        <v>-150.94399999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>36933.453768</v>
+        <v>36933.453767999999</v>
       </c>
       <c r="L24" s="1">
         <v>10.259293</v>
       </c>
       <c r="M24" s="1">
-        <v>943.874000</v>
+        <v>943.87400000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-112.036000</v>
+        <v>-112.036</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>36943.657962</v>
+        <v>36943.657961999997</v>
       </c>
       <c r="Q24" s="1">
         <v>10.262127</v>
       </c>
       <c r="R24" s="1">
-        <v>951.036000</v>
+        <v>951.03599999999994</v>
       </c>
       <c r="S24" s="1">
-        <v>-99.359300</v>
+        <v>-99.359300000000005</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>36954.103211</v>
+        <v>36954.103211000001</v>
       </c>
       <c r="V24" s="1">
         <v>10.265029</v>
       </c>
       <c r="W24" s="1">
-        <v>958.377000</v>
+        <v>958.37699999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-87.736800</v>
+        <v>-87.736800000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>36964.997837</v>
+        <v>36964.997837000003</v>
       </c>
       <c r="AA24" s="1">
         <v>10.268055</v>
       </c>
       <c r="AB24" s="1">
-        <v>967.008000</v>
+        <v>967.00800000000004</v>
       </c>
       <c r="AC24" s="1">
-        <v>-79.742500</v>
+        <v>-79.742500000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>36975.833936</v>
+        <v>36975.833936000003</v>
       </c>
       <c r="AF24" s="1">
         <v>10.271065</v>
       </c>
       <c r="AG24" s="1">
-        <v>972.545000</v>
+        <v>972.54499999999996</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.749900</v>
+        <v>-79.749899999999997</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>36986.101154</v>
+        <v>36986.101154000004</v>
       </c>
       <c r="AK24" s="1">
-        <v>10.273917</v>
+        <v>10.273917000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>980.950000</v>
+        <v>980.95</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.701700</v>
+        <v>-87.701700000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>36996.726451</v>
+        <v>36996.726451000002</v>
       </c>
       <c r="AP24" s="1">
         <v>10.276868</v>
       </c>
       <c r="AQ24" s="1">
-        <v>990.320000</v>
+        <v>990.32</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.699000</v>
+        <v>-102.699</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>37007.505480</v>
+        <v>37007.50548</v>
       </c>
       <c r="AU24" s="1">
-        <v>10.279863</v>
+        <v>10.279863000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.316000</v>
+        <v>-124.316</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>37018.098534</v>
+        <v>37018.098533999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>10.282805</v>
       </c>
       <c r="BA24" s="1">
-        <v>1011.310000</v>
+        <v>1011.31</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.142000</v>
+        <v>-143.142</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>37029.235703</v>
+        <v>37029.235702999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>10.285899</v>
+        <v>10.285899000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1056.290000</v>
+        <v>1056.29</v>
       </c>
       <c r="BG24" s="1">
-        <v>-228.529000</v>
+        <v>-228.529</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>37040.263754</v>
@@ -6315,180 +6731,180 @@
         <v>10.288962</v>
       </c>
       <c r="BK24" s="1">
-        <v>1135.340000</v>
+        <v>1135.3399999999999</v>
       </c>
       <c r="BL24" s="1">
-        <v>-366.167000</v>
+        <v>-366.16699999999997</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>37051.315116</v>
+        <v>37051.315115999998</v>
       </c>
       <c r="BO24" s="1">
-        <v>10.292032</v>
+        <v>10.292032000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1266.590000</v>
+        <v>1266.5899999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-579.664000</v>
+        <v>-579.66399999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>37061.961276</v>
+        <v>37061.961276000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>10.294989</v>
+        <v>10.294988999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1414.170000</v>
+        <v>1414.17</v>
       </c>
       <c r="BV24" s="1">
-        <v>-808.530000</v>
+        <v>-808.53</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>37072.929279</v>
+        <v>37072.929279000004</v>
       </c>
       <c r="BY24" s="1">
         <v>10.298036</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1577.560000</v>
+        <v>1577.56</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1047.760000</v>
+        <v>-1047.76</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>37086.017212</v>
+        <v>37086.017211999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>10.301671</v>
+        <v>10.301671000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1989.710000</v>
+        <v>1989.71</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1607.370000</v>
+        <v>-1607.37</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>36912.555362</v>
+        <v>36912.555361999999</v>
       </c>
       <c r="B25" s="1">
-        <v>10.253488</v>
+        <v>10.253488000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>909.389000</v>
+        <v>909.38900000000001</v>
       </c>
       <c r="D25" s="1">
-        <v>-176.078000</v>
+        <v>-176.078</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>36923.327444</v>
+        <v>36923.327444000002</v>
       </c>
       <c r="G25" s="1">
-        <v>10.256480</v>
+        <v>10.25648</v>
       </c>
       <c r="H25" s="1">
-        <v>923.387000</v>
+        <v>923.38699999999994</v>
       </c>
       <c r="I25" s="1">
-        <v>-150.971000</v>
+        <v>-150.971</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>36933.799014</v>
+        <v>36933.799013999997</v>
       </c>
       <c r="L25" s="1">
-        <v>10.259389</v>
+        <v>10.259389000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>944.086000</v>
+        <v>944.08600000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-112.015000</v>
+        <v>-112.015</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>36944.306265</v>
+        <v>36944.306264999999</v>
       </c>
       <c r="Q25" s="1">
         <v>10.262307</v>
       </c>
       <c r="R25" s="1">
-        <v>950.980000</v>
+        <v>950.98</v>
       </c>
       <c r="S25" s="1">
-        <v>-99.359900</v>
+        <v>-99.359899999999996</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>36954.771855</v>
+        <v>36954.771854999999</v>
       </c>
       <c r="V25" s="1">
         <v>10.265214</v>
       </c>
       <c r="W25" s="1">
-        <v>958.491000</v>
+        <v>958.49099999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-87.787100</v>
+        <v>-87.787099999999995</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>36965.391164</v>
+        <v>36965.391164000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>10.268164</v>
+        <v>10.268164000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>967.013000</v>
+        <v>967.01300000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-79.845600</v>
+        <v>-79.845600000000005</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>36976.179647</v>
+        <v>36976.179646999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>10.271161</v>
+        <v>10.271160999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>972.557000</v>
+        <v>972.55700000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.737400</v>
+        <v>-79.737399999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>36986.452288</v>
@@ -6497,88 +6913,88 @@
         <v>10.274015</v>
       </c>
       <c r="AL25" s="1">
-        <v>980.950000</v>
+        <v>980.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.716400</v>
+        <v>-87.716399999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>36997.090517</v>
+        <v>36997.090516999997</v>
       </c>
       <c r="AP25" s="1">
-        <v>10.276970</v>
+        <v>10.27697</v>
       </c>
       <c r="AQ25" s="1">
-        <v>990.316000</v>
+        <v>990.31600000000003</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.717000</v>
+        <v>-102.717</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>37008.108116</v>
+        <v>37008.108116000003</v>
       </c>
       <c r="AU25" s="1">
-        <v>10.280030</v>
+        <v>10.28003</v>
       </c>
       <c r="AV25" s="1">
-        <v>1001.720000</v>
+        <v>1001.72</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.313000</v>
+        <v>-124.313</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>37018.516675</v>
+        <v>37018.516674999999</v>
       </c>
       <c r="AZ25" s="1">
         <v>10.282921</v>
       </c>
       <c r="BA25" s="1">
-        <v>1011.310000</v>
+        <v>1011.31</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.125000</v>
+        <v>-143.125</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>37029.546697</v>
+        <v>37029.546696999998</v>
       </c>
       <c r="BE25" s="1">
         <v>10.285985</v>
       </c>
       <c r="BF25" s="1">
-        <v>1056.270000</v>
+        <v>1056.27</v>
       </c>
       <c r="BG25" s="1">
-        <v>-228.545000</v>
+        <v>-228.54499999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>37040.607482</v>
+        <v>37040.607481999999</v>
       </c>
       <c r="BJ25" s="1">
-        <v>10.289058</v>
+        <v>10.289058000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1135.330000</v>
+        <v>1135.33</v>
       </c>
       <c r="BL25" s="1">
-        <v>-366.184000</v>
+        <v>-366.18400000000003</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>37051.737707</v>
@@ -6587,61 +7003,61 @@
         <v>10.292149</v>
       </c>
       <c r="BP25" s="1">
-        <v>1266.600000</v>
+        <v>1266.5999999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-579.724000</v>
+        <v>-579.72400000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>37062.373916</v>
+        <v>37062.373915999997</v>
       </c>
       <c r="BT25" s="1">
         <v>10.295104</v>
       </c>
       <c r="BU25" s="1">
-        <v>1414.280000</v>
+        <v>1414.28</v>
       </c>
       <c r="BV25" s="1">
-        <v>-808.569000</v>
+        <v>-808.56899999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>37073.349886</v>
+        <v>37073.349886000004</v>
       </c>
       <c r="BY25" s="1">
-        <v>10.298153</v>
+        <v>10.298152999999999</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1577.490000</v>
+        <v>1577.49</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1047.670000</v>
+        <v>-1047.67</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>37086.553420</v>
+        <v>37086.553419999997</v>
       </c>
       <c r="CD25" s="1">
-        <v>10.301820</v>
+        <v>10.301819999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1991.020000</v>
+        <v>1991.02</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1608.610000</v>
+        <v>-1608.61</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>36912.894129</v>
       </c>
@@ -6649,28 +7065,28 @@
         <v>10.253582</v>
       </c>
       <c r="C26" s="1">
-        <v>909.495000</v>
+        <v>909.495</v>
       </c>
       <c r="D26" s="1">
-        <v>-175.869000</v>
+        <v>-175.869</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>36923.975221</v>
+        <v>36923.975221000001</v>
       </c>
       <c r="G26" s="1">
-        <v>10.256660</v>
+        <v>10.25666</v>
       </c>
       <c r="H26" s="1">
-        <v>923.249000</v>
+        <v>923.24900000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-150.624000</v>
+        <v>-150.624</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>36934.446291</v>
@@ -6679,148 +7095,148 @@
         <v>10.259568</v>
       </c>
       <c r="M26" s="1">
-        <v>944.072000</v>
+        <v>944.072</v>
       </c>
       <c r="N26" s="1">
-        <v>-111.854000</v>
+        <v>-111.854</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>36944.703527</v>
+        <v>36944.703526999998</v>
       </c>
       <c r="Q26" s="1">
         <v>10.262418</v>
       </c>
       <c r="R26" s="1">
-        <v>951.020000</v>
+        <v>951.02</v>
       </c>
       <c r="S26" s="1">
-        <v>-99.313600</v>
+        <v>-99.313599999999994</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>36955.176554</v>
+        <v>36955.176553999998</v>
       </c>
       <c r="V26" s="1">
-        <v>10.265327</v>
+        <v>10.265326999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>958.435000</v>
+        <v>958.43499999999995</v>
       </c>
       <c r="X26" s="1">
-        <v>-87.715300</v>
+        <v>-87.715299999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>36965.738627</v>
+        <v>36965.738626999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>10.268261</v>
+        <v>10.268261000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.951000</v>
+        <v>966.95100000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-79.722000</v>
+        <v>-79.721999999999994</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>36976.519934</v>
+        <v>36976.519934000004</v>
       </c>
       <c r="AF26" s="1">
-        <v>10.271256</v>
+        <v>10.271255999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>972.535000</v>
+        <v>972.53499999999997</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.739300</v>
+        <v>-79.7393</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>36986.798497</v>
+        <v>36986.798497000003</v>
       </c>
       <c r="AK26" s="1">
         <v>10.274111</v>
       </c>
       <c r="AL26" s="1">
-        <v>980.966000</v>
+        <v>980.96600000000001</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.701300</v>
+        <v>-87.701300000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>36997.520018</v>
+        <v>36997.520018000003</v>
       </c>
       <c r="AP26" s="1">
         <v>10.277089</v>
       </c>
       <c r="AQ26" s="1">
-        <v>990.328000</v>
+        <v>990.32799999999997</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.711000</v>
+        <v>-102.711</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>37008.236581</v>
+        <v>37008.236580999997</v>
       </c>
       <c r="AU26" s="1">
         <v>10.280066</v>
       </c>
       <c r="AV26" s="1">
-        <v>1001.730000</v>
+        <v>1001.73</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.320000</v>
+        <v>-124.32</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>37018.817734</v>
+        <v>37018.817733999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>10.283005</v>
+        <v>10.283004999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1011.330000</v>
+        <v>1011.33</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.114000</v>
+        <v>-143.114</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>37029.903847</v>
+        <v>37029.903847000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>10.286084</v>
+        <v>10.286084000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1056.260000</v>
+        <v>1056.26</v>
       </c>
       <c r="BG26" s="1">
-        <v>-228.539000</v>
+        <v>-228.53899999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>37040.997336</v>
@@ -6829,28 +7245,28 @@
         <v>10.289166</v>
       </c>
       <c r="BK26" s="1">
-        <v>1135.320000</v>
+        <v>1135.32</v>
       </c>
       <c r="BL26" s="1">
-        <v>-366.165000</v>
+        <v>-366.16500000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>37052.133054</v>
+        <v>37052.133053999998</v>
       </c>
       <c r="BO26" s="1">
         <v>10.292259</v>
       </c>
       <c r="BP26" s="1">
-        <v>1266.610000</v>
+        <v>1266.6099999999999</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-579.684000</v>
+        <v>-579.68399999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>37062.803452</v>
@@ -6859,45 +7275,46 @@
         <v>10.295223</v>
       </c>
       <c r="BU26" s="1">
-        <v>1414.230000</v>
+        <v>1414.23</v>
       </c>
       <c r="BV26" s="1">
-        <v>-808.607000</v>
+        <v>-808.60699999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>37073.774461</v>
+        <v>37073.774461000001</v>
       </c>
       <c r="BY26" s="1">
         <v>10.298271</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1577.480000</v>
+        <v>1577.48</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1047.720000</v>
+        <v>-1047.72</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>37087.096013</v>
+        <v>37087.096013000002</v>
       </c>
       <c r="CD26" s="1">
         <v>10.301971</v>
       </c>
       <c r="CE26" s="1">
-        <v>1990.750000</v>
+        <v>1990.75</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1607.070000</v>
+        <v>-1607.07</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>